--- a/output/all-profiles.xlsx
+++ b/output/all-profiles.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3147" uniqueCount="426">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3378" uniqueCount="436">
   <si>
     <t>Property</t>
   </si>
@@ -24,13 +24,13 @@
     <t>ID</t>
   </si>
   <si>
-    <t>Manifestation</t>
+    <t>Abatement</t>
   </si>
   <si>
     <t>URL</t>
   </si>
   <si>
-    <t>http://example.org/StructureDefinition/Manifestation</t>
+    <t>http://example.org/StructureDefinition/Abatement</t>
   </si>
   <si>
     <t>Version</t>
@@ -81,7 +81,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Manifestation or course of the symptom (e.g., acute, chronic, episodic)</t>
+    <t>When in resolution/remission</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -319,24 +319,37 @@
     <t>Extension.value[x]</t>
   </si>
   <si>
+    <t>dateTime
+stringAgePeriodRange</t>
+  </si>
+  <si>
+    <t>Value of extension</t>
+  </si>
+  <si>
+    <t>Value of extension - must be one of a constrained set of the data types (see [Extensibility](http://hl7.org/fhir/R4/extensibility.html) for a list).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+</t>
+  </si>
+  <si>
+    <t>Manifestation</t>
+  </si>
+  <si>
+    <t>http://example.org/StructureDefinition/Manifestation</t>
+  </si>
+  <si>
+    <t>Manifestation or course of the symptom (e.g., acute, chronic, episodic)</t>
+  </si>
+  <si>
     <t xml:space="preserve">code
 </t>
   </si>
   <si>
-    <t>Value of extension</t>
-  </si>
-  <si>
-    <t>Value of extension - must be one of a constrained set of the data types (see [Extensibility](http://hl7.org/fhir/R4/extensibility.html) for a list).</t>
-  </si>
-  <si>
     <t>extensible</t>
   </si>
   <si>
     <t>http://example.org/ValueSet/ManifestationVS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-</t>
   </si>
   <si>
     <t>RelatedStatus</t>
@@ -513,6 +526,16 @@
   </si>
   <si>
     <t>DomainResource.extension</t>
+  </si>
+  <si>
+    <t>Observation.extension:abatement</t>
+  </si>
+  <si>
+    <t>abatement</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://example.org/StructureDefinition/Abatement}
+</t>
   </si>
   <si>
     <t>Observation.extension:manifestation</t>
@@ -681,13 +704,7 @@
     <t>Knowing what kind of observation is being made is essential to understanding the observation.</t>
   </si>
   <si>
-    <t>example</t>
-  </si>
-  <si>
-    <t>Codes identifying names of simple observations.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-codes</t>
+    <t>http://example.org/ValueSet/SymptomsVS</t>
   </si>
   <si>
     <t>Observation.subject</t>
@@ -909,6 +926,9 @@
 If the use case requires BodySite to be handled as a separate resource (e.g. to identify and track separately) then use the standard extension[ bodySite](http://hl7.org/fhir/R4/extension-bodysite.html).</t>
   </si>
   <si>
+    <t>example</t>
+  </si>
+  <si>
     <t>Codes describing anatomical locations. May include laterality.</t>
   </si>
   <si>
@@ -1126,7 +1146,7 @@
     <t>This observation is a group observation (e.g. a battery, a panel of tests, a set of vital sign measurements) that includes the target as a member of the group.</t>
   </si>
   <si>
-    <t>When using this element, an observation will typically have either a value or a set of related resources, although both may be present in some cases.  For a discussion on the ways Observations can assembled in groups together, see [Notes](http://hl7.org/fhir/R4/observation.html#obsgrouping) below.  Note that a system may calculate results from [QuestionnaireResponse](questionnaireresponse.html)  into a final score and represent the score as an Observation.</t>
+    <t>When using this element, an observation will typically have either a value or a set of related resources, although both may be present in some cases.  For a discussion on the ways Observations can assembled in groups together, see [Notes](http://hl7.org/fhir/R4/observation.html#obsgrouping) below.  Note that a system may calculate results from [QuestionnaireResponse](http://hl7.org/fhir/R4/questionnaireresponse.html)  into a final score and represent the score as an Observation.</t>
   </si>
   <si>
     <t>Observation.derivedFrom</t>
@@ -1185,6 +1205,12 @@
     <t>*All* code-value and  component.code-component.value pairs need to be taken into account to correctly understand the meaning of the observation.</t>
   </si>
   <si>
+    <t>Codes identifying names of simple observations.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/observation-codes</t>
+  </si>
+  <si>
     <t>Observation.component.value[x]</t>
   </si>
   <si>
@@ -1286,14 +1312,17 @@
     <t>Code for specific scale or assessment (e.g., pain scale, anxiety inventory)</t>
   </si>
   <si>
-    <t>http://example.org/ValueSet/ScaleVS</t>
+    <t>http://hl7.org/fhir/us/core/ValueSet/us-core-survey-codes</t>
   </si>
   <si>
     <t>Observation.component:assessment.value[x]</t>
   </si>
   <si>
-    <t>CodeableConcept
-Ratio</t>
+    <t>Quantity
+CodeableConceptRatio</t>
+  </si>
+  <si>
+    <t>http://example.org/ValueSet/AssessmentValueVS</t>
   </si>
   <si>
     <t>Observation.component:assessment.dataAbsentReason</t>
@@ -1347,6 +1376,9 @@
   <si>
     <t>CodeableConcept
 string</t>
+  </si>
+  <si>
+    <t>http://example.org/ValueSet/RelatedValueVS</t>
   </si>
   <si>
     <t>Observation.component:related.dataAbsentReason</t>
@@ -1489,7 +1521,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B65"/>
+  <dimension ref="A1:B87"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1680,7 +1712,7 @@
         <v>2</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="25">
@@ -1688,7 +1720,7 @@
         <v>4</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="26">
@@ -1704,7 +1736,7 @@
         <v>8</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="28">
@@ -1764,7 +1796,7 @@
         <v>21</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="36">
@@ -1832,7 +1864,7 @@
         <v>37</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>108</v>
+        <v>38</v>
       </c>
     </row>
     <row r="45">
@@ -1848,7 +1880,7 @@
         <v>2</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="47">
@@ -1856,7 +1888,7 @@
         <v>4</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="48">
@@ -1872,16 +1904,14 @@
         <v>8</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
         <v>9</v>
       </c>
-      <c r="B50" t="s" s="2">
-        <v>112</v>
-      </c>
+      <c r="B50" s="2"/>
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
@@ -1933,7 +1963,9 @@
       <c r="A57" t="s" s="2">
         <v>21</v>
       </c>
-      <c r="B57" s="2"/>
+      <c r="B57" t="s" s="2">
+        <v>111</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
@@ -1960,7 +1992,7 @@
         <v>27</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>113</v>
+        <v>28</v>
       </c>
     </row>
     <row r="62">
@@ -1968,7 +2000,7 @@
         <v>29</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>114</v>
+        <v>30</v>
       </c>
     </row>
     <row r="63">
@@ -1976,7 +2008,7 @@
         <v>31</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>115</v>
+        <v>32</v>
       </c>
     </row>
     <row r="64">
@@ -1992,6 +2024,174 @@
         <v>35</v>
       </c>
       <c r="B65" t="s" s="2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="B66" t="s" s="2">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s" s="1">
+        <v>0</v>
+      </c>
+      <c r="B67" t="s" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="B68" t="s" s="2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s" s="2">
+        <v>4</v>
+      </c>
+      <c r="B69" t="s" s="2">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s" s="2">
+        <v>6</v>
+      </c>
+      <c r="B70" t="s" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s" s="2">
+        <v>8</v>
+      </c>
+      <c r="B71" t="s" s="2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s" s="2">
+        <v>9</v>
+      </c>
+      <c r="B72" t="s" s="2">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s" s="2">
+        <v>10</v>
+      </c>
+      <c r="B73" t="s" s="2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="B74" s="2"/>
+    </row>
+    <row r="75">
+      <c r="A75" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="B75" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="B76" t="s" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="B77" t="s" s="2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="B78" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="B79" s="2"/>
+    </row>
+    <row r="80">
+      <c r="A80" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="B80" s="2"/>
+    </row>
+    <row r="81">
+      <c r="A81" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="B81" s="2"/>
+    </row>
+    <row r="82">
+      <c r="A82" t="s" s="2">
+        <v>25</v>
+      </c>
+      <c r="B82" t="s" s="2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="s" s="2">
+        <v>27</v>
+      </c>
+      <c r="B83" t="s" s="2">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="B84" t="s" s="2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="B85" t="s" s="2">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="B86" t="s" s="2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="B87" t="s" s="2">
         <v>36</v>
       </c>
     </row>
@@ -2002,7 +2202,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AK90"/>
+  <dimension ref="A1:AK96"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2037,7 +2237,7 @@
     <col min="24" max="24" width="17.078125" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="16.3125" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="60.51953125" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="50.89453125" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="53.6796875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="5.69140625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="19.73046875" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="40.0390625" customWidth="true" bestFit="true"/>
@@ -2639,11 +2839,13 @@
         <v>20</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="Z6" s="2"/>
+        <v>20</v>
+      </c>
+      <c r="Z6" t="s" s="2">
+        <v>20</v>
+      </c>
       <c r="AA6" t="s" s="2">
-        <v>103</v>
+        <v>20</v>
       </c>
       <c r="AB6" t="s" s="2">
         <v>20</v>
@@ -2673,12 +2875,12 @@
         <v>20</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B7" t="s" s="2">
         <v>30</v>
@@ -2713,7 +2915,7 @@
         <v>30</v>
       </c>
       <c r="N7" t="s" s="2">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" s="2"/>
@@ -2781,7 +2983,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B8" t="s" s="2">
         <v>80</v>
@@ -2884,7 +3086,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B9" t="s" s="2">
         <v>86</v>
@@ -2987,7 +3189,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B10" t="s" s="2">
         <v>93</v>
@@ -3033,7 +3235,7 @@
       </c>
       <c r="R10" s="2"/>
       <c r="S10" t="s" s="2">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="T10" t="s" s="2">
         <v>20</v>
@@ -3092,7 +3294,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B11" t="s" s="2">
         <v>98</v>
@@ -3121,7 +3323,7 @@
         <v>20</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="M11" t="s" s="2">
         <v>100</v>
@@ -3154,11 +3356,11 @@
         <v>20</v>
       </c>
       <c r="Y11" t="s" s="2">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="Z11" s="2"/>
       <c r="AA11" t="s" s="2">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AB11" t="s" s="2">
         <v>20</v>
@@ -3188,22 +3390,22 @@
         <v>20</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>114</v>
+        <v>30</v>
       </c>
       <c r="C12" t="s" s="2">
-        <v>114</v>
+        <v>30</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" t="s" s="2">
-        <v>116</v>
+        <v>20</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" t="s" s="2">
@@ -3225,14 +3427,12 @@
         <v>77</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>112</v>
+        <v>30</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="O12" t="s" s="2">
-        <v>118</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="O12" s="2"/>
       <c r="P12" s="2"/>
       <c r="Q12" t="s" s="2">
         <v>20</v>
@@ -3281,7 +3481,7 @@
         <v>20</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>114</v>
+        <v>30</v>
       </c>
       <c r="AH12" t="s" s="2">
         <v>75</v>
@@ -3290,21 +3490,21 @@
         <v>76</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>20</v>
+        <v>78</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>119</v>
+        <v>79</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="C13" t="s" s="2">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" t="s" s="2">
@@ -3324,20 +3524,18 @@
         <v>20</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>121</v>
+        <v>20</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>122</v>
+        <v>82</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>123</v>
+        <v>83</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>124</v>
-      </c>
-      <c r="O13" t="s" s="2">
-        <v>125</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="O13" s="2"/>
       <c r="P13" s="2"/>
       <c r="Q13" t="s" s="2">
         <v>20</v>
@@ -3386,7 +3584,7 @@
         <v>20</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>126</v>
+        <v>85</v>
       </c>
       <c r="AH13" t="s" s="2">
         <v>75</v>
@@ -3403,13 +3601,13 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>127</v>
+        <v>86</v>
       </c>
       <c r="C14" t="s" s="2">
-        <v>127</v>
+        <v>86</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
@@ -3420,7 +3618,7 @@
         <v>75</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="I14" t="s" s="2">
         <v>20</v>
@@ -3429,16 +3627,16 @@
         <v>20</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>121</v>
+        <v>20</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>128</v>
+        <v>87</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>129</v>
+        <v>30</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>130</v>
+        <v>88</v>
       </c>
       <c r="O14" s="2"/>
       <c r="P14" s="2"/>
@@ -3477,42 +3675,42 @@
         <v>20</v>
       </c>
       <c r="AC14" t="s" s="2">
-        <v>20</v>
+        <v>89</v>
       </c>
       <c r="AD14" t="s" s="2">
-        <v>20</v>
+        <v>90</v>
       </c>
       <c r="AE14" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>20</v>
+        <v>91</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>131</v>
+        <v>92</v>
       </c>
       <c r="AH14" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="AJ14" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>104</v>
+        <v>79</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>132</v>
+        <v>93</v>
       </c>
       <c r="C15" t="s" s="2">
-        <v>132</v>
+        <v>93</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
@@ -3520,7 +3718,7 @@
       </c>
       <c r="F15" s="2"/>
       <c r="G15" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>81</v>
@@ -3529,22 +3727,22 @@
         <v>20</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>121</v>
+        <v>20</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>121</v>
+        <v>20</v>
       </c>
       <c r="L15" t="s" s="2">
         <v>94</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>133</v>
+        <v>95</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>134</v>
+        <v>96</v>
       </c>
       <c r="O15" t="s" s="2">
-        <v>135</v>
+        <v>97</v>
       </c>
       <c r="P15" s="2"/>
       <c r="Q15" t="s" s="2">
@@ -3552,7 +3750,7 @@
       </c>
       <c r="R15" s="2"/>
       <c r="S15" t="s" s="2">
-        <v>20</v>
+        <v>110</v>
       </c>
       <c r="T15" t="s" s="2">
         <v>20</v>
@@ -3594,10 +3792,10 @@
         <v>20</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>136</v>
+        <v>93</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="AI15" t="s" s="2">
         <v>81</v>
@@ -3606,18 +3804,18 @@
         <v>20</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>104</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="C16" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
@@ -3640,17 +3838,15 @@
         <v>20</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>138</v>
+        <v>100</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="O16" t="s" s="2">
-        <v>140</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="O16" s="2"/>
       <c r="P16" s="2"/>
       <c r="Q16" t="s" s="2">
         <v>20</v>
@@ -3675,13 +3871,11 @@
         <v>20</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="Z16" t="s" s="2">
-        <v>142</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="Z16" s="2"/>
       <c r="AA16" t="s" s="2">
-        <v>143</v>
+        <v>113</v>
       </c>
       <c r="AB16" t="s" s="2">
         <v>20</v>
@@ -3699,7 +3893,7 @@
         <v>20</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>144</v>
+        <v>98</v>
       </c>
       <c r="AH16" t="s" s="2">
         <v>75</v>
@@ -3711,29 +3905,29 @@
         <v>20</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>145</v>
+        <v>118</v>
       </c>
       <c r="C17" t="s" s="2">
-        <v>145</v>
+        <v>118</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
-        <v>146</v>
+        <v>120</v>
       </c>
       <c r="F17" s="2"/>
       <c r="G17" t="s" s="2">
         <v>75</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="I17" t="s" s="2">
         <v>20</v>
@@ -3745,16 +3939,16 @@
         <v>20</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>147</v>
+        <v>77</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>148</v>
+        <v>116</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>149</v>
+        <v>121</v>
       </c>
       <c r="O17" t="s" s="2">
-        <v>150</v>
+        <v>122</v>
       </c>
       <c r="P17" s="2"/>
       <c r="Q17" t="s" s="2">
@@ -3804,41 +3998,41 @@
         <v>20</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>151</v>
+        <v>118</v>
       </c>
       <c r="AH17" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="AJ17" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>104</v>
+        <v>123</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>152</v>
+        <v>124</v>
       </c>
       <c r="C18" t="s" s="2">
-        <v>152</v>
+        <v>124</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
-        <v>153</v>
+        <v>20</v>
       </c>
       <c r="F18" s="2"/>
       <c r="G18" t="s" s="2">
         <v>75</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="I18" t="s" s="2">
         <v>20</v>
@@ -3847,19 +4041,19 @@
         <v>20</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>20</v>
+        <v>125</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>154</v>
+        <v>126</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>155</v>
+        <v>127</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>156</v>
+        <v>128</v>
       </c>
       <c r="O18" t="s" s="2">
-        <v>157</v>
+        <v>129</v>
       </c>
       <c r="P18" s="2"/>
       <c r="Q18" t="s" s="2">
@@ -3909,13 +4103,13 @@
         <v>20</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>158</v>
+        <v>130</v>
       </c>
       <c r="AH18" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="AJ18" t="s" s="2">
         <v>20</v>
@@ -3926,13 +4120,13 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>159</v>
+        <v>131</v>
       </c>
       <c r="C19" t="s" s="2">
-        <v>159</v>
+        <v>131</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
@@ -3943,7 +4137,7 @@
         <v>75</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="I19" t="s" s="2">
         <v>20</v>
@@ -3952,16 +4146,16 @@
         <v>20</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>20</v>
+        <v>125</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>87</v>
+        <v>132</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>30</v>
+        <v>133</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>88</v>
+        <v>134</v>
       </c>
       <c r="O19" s="2"/>
       <c r="P19" s="2"/>
@@ -4000,44 +4194,44 @@
         <v>20</v>
       </c>
       <c r="AC19" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AD19" s="2"/>
+        <v>20</v>
+      </c>
+      <c r="AD19" t="s" s="2">
+        <v>20</v>
+      </c>
       <c r="AE19" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>91</v>
+        <v>20</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>160</v>
+        <v>135</v>
       </c>
       <c r="AH19" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="AJ19" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>79</v>
+        <v>102</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>161</v>
+        <v>136</v>
       </c>
       <c r="C20" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="D20" t="s" s="2">
-        <v>162</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
         <v>20</v>
       </c>
@@ -4052,21 +4246,23 @@
         <v>20</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>20</v>
+        <v>125</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>20</v>
+        <v>125</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>163</v>
+        <v>94</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>30</v>
+        <v>137</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>22</v>
-      </c>
-      <c r="O20" s="2"/>
+        <v>138</v>
+      </c>
+      <c r="O20" t="s" s="2">
+        <v>139</v>
+      </c>
       <c r="P20" s="2"/>
       <c r="Q20" t="s" s="2">
         <v>20</v>
@@ -4115,66 +4311,64 @@
         <v>20</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>160</v>
+        <v>140</v>
       </c>
       <c r="AH20" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>78</v>
+        <v>20</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>79</v>
+        <v>102</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>164</v>
+        <v>141</v>
       </c>
       <c r="C21" t="s" s="2">
-        <v>164</v>
+        <v>141</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
-        <v>165</v>
+        <v>20</v>
       </c>
       <c r="F21" s="2"/>
       <c r="G21" t="s" s="2">
         <v>75</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="I21" t="s" s="2">
         <v>20</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>121</v>
+        <v>20</v>
       </c>
       <c r="K21" t="s" s="2">
         <v>20</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>87</v>
+        <v>106</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>166</v>
+        <v>142</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>167</v>
+        <v>143</v>
       </c>
       <c r="O21" t="s" s="2">
-        <v>168</v>
-      </c>
-      <c r="P21" t="s" s="2">
-        <v>169</v>
-      </c>
+        <v>144</v>
+      </c>
+      <c r="P21" s="2"/>
       <c r="Q21" t="s" s="2">
         <v>20</v>
       </c>
@@ -4198,13 +4392,13 @@
         <v>20</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>20</v>
+        <v>145</v>
       </c>
       <c r="Z21" t="s" s="2">
-        <v>20</v>
+        <v>146</v>
       </c>
       <c r="AA21" t="s" s="2">
-        <v>20</v>
+        <v>147</v>
       </c>
       <c r="AB21" t="s" s="2">
         <v>20</v>
@@ -4222,41 +4416,41 @@
         <v>20</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>170</v>
+        <v>148</v>
       </c>
       <c r="AH21" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="AJ21" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>79</v>
+        <v>102</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>171</v>
+        <v>149</v>
       </c>
       <c r="C22" t="s" s="2">
-        <v>171</v>
+        <v>149</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
-        <v>20</v>
+        <v>150</v>
       </c>
       <c r="F22" s="2"/>
       <c r="G22" t="s" s="2">
         <v>75</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="I22" t="s" s="2">
         <v>20</v>
@@ -4265,21 +4459,21 @@
         <v>20</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>121</v>
+        <v>20</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>172</v>
+        <v>151</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>173</v>
+        <v>152</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="O22" s="2"/>
-      <c r="P22" t="s" s="2">
-        <v>175</v>
-      </c>
+        <v>153</v>
+      </c>
+      <c r="O22" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="P22" s="2"/>
       <c r="Q22" t="s" s="2">
         <v>20</v>
       </c>
@@ -4327,34 +4521,34 @@
         <v>20</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>171</v>
+        <v>155</v>
       </c>
       <c r="AH22" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="AJ22" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>176</v>
+        <v>156</v>
       </c>
       <c r="C23" t="s" s="2">
-        <v>176</v>
+        <v>156</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
-        <v>177</v>
+        <v>157</v>
       </c>
       <c r="F23" s="2"/>
       <c r="G23" t="s" s="2">
@@ -4370,21 +4564,21 @@
         <v>20</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>121</v>
+        <v>20</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>178</v>
+        <v>158</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>179</v>
+        <v>159</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>180</v>
-      </c>
-      <c r="O23" s="2"/>
-      <c r="P23" t="s" s="2">
-        <v>181</v>
-      </c>
+        <v>160</v>
+      </c>
+      <c r="O23" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="P23" s="2"/>
       <c r="Q23" t="s" s="2">
         <v>20</v>
       </c>
@@ -4432,7 +4626,7 @@
         <v>20</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>176</v>
+        <v>162</v>
       </c>
       <c r="AH23" t="s" s="2">
         <v>75</v>
@@ -4444,22 +4638,22 @@
         <v>20</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>104</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>182</v>
+        <v>163</v>
       </c>
       <c r="C24" t="s" s="2">
-        <v>182</v>
+        <v>163</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
-        <v>183</v>
+        <v>20</v>
       </c>
       <c r="F24" s="2"/>
       <c r="G24" t="s" s="2">
@@ -4475,20 +4669,18 @@
         <v>20</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>121</v>
+        <v>20</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>184</v>
+        <v>87</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>185</v>
+        <v>30</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="O24" t="s" s="2">
-        <v>187</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="O24" s="2"/>
       <c r="P24" s="2"/>
       <c r="Q24" t="s" s="2">
         <v>20</v>
@@ -4525,19 +4717,17 @@
         <v>20</v>
       </c>
       <c r="AC24" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AD24" t="s" s="2">
-        <v>20</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="AD24" s="2"/>
       <c r="AE24" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>20</v>
+        <v>91</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>182</v>
+        <v>164</v>
       </c>
       <c r="AH24" t="s" s="2">
         <v>75</v>
@@ -4549,26 +4739,28 @@
         <v>20</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>104</v>
+        <v>79</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>188</v>
+        <v>165</v>
       </c>
       <c r="C25" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="D25" s="2"/>
+        <v>163</v>
+      </c>
+      <c r="D25" t="s" s="2">
+        <v>166</v>
+      </c>
       <c r="E25" t="s" s="2">
         <v>20</v>
       </c>
       <c r="F25" s="2"/>
       <c r="G25" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>81</v>
@@ -4577,26 +4769,22 @@
         <v>20</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>121</v>
+        <v>20</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>121</v>
+        <v>20</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>99</v>
+        <v>167</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>189</v>
+        <v>30</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="O25" t="s" s="2">
-        <v>191</v>
-      </c>
-      <c r="P25" t="s" s="2">
-        <v>192</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="O25" s="2"/>
+      <c r="P25" s="2"/>
       <c r="Q25" t="s" s="2">
         <v>20</v>
       </c>
@@ -4620,13 +4808,13 @@
         <v>20</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>193</v>
+        <v>20</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>194</v>
+        <v>20</v>
       </c>
       <c r="AA25" t="s" s="2">
-        <v>195</v>
+        <v>20</v>
       </c>
       <c r="AB25" t="s" s="2">
         <v>20</v>
@@ -4644,32 +4832,34 @@
         <v>20</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>188</v>
+        <v>164</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>20</v>
+        <v>78</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>104</v>
+        <v>79</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>196</v>
+        <v>168</v>
       </c>
       <c r="C26" t="s" s="2">
-        <v>196</v>
-      </c>
-      <c r="D26" s="2"/>
+        <v>163</v>
+      </c>
+      <c r="D26" t="s" s="2">
+        <v>169</v>
+      </c>
       <c r="E26" t="s" s="2">
         <v>20</v>
       </c>
@@ -4678,7 +4868,7 @@
         <v>75</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="I26" t="s" s="2">
         <v>20</v>
@@ -4690,26 +4880,22 @@
         <v>20</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>197</v>
+        <v>170</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>198</v>
+        <v>30</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>199</v>
-      </c>
-      <c r="O26" t="s" s="2">
-        <v>200</v>
-      </c>
-      <c r="P26" t="s" s="2">
-        <v>201</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="O26" s="2"/>
+      <c r="P26" s="2"/>
       <c r="Q26" t="s" s="2">
         <v>20</v>
       </c>
       <c r="R26" s="2"/>
       <c r="S26" t="s" s="2">
-        <v>202</v>
+        <v>20</v>
       </c>
       <c r="T26" t="s" s="2">
         <v>20</v>
@@ -4727,13 +4913,13 @@
         <v>20</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>141</v>
+        <v>20</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>203</v>
+        <v>20</v>
       </c>
       <c r="AA26" t="s" s="2">
-        <v>204</v>
+        <v>20</v>
       </c>
       <c r="AB26" t="s" s="2">
         <v>20</v>
@@ -4751,7 +4937,7 @@
         <v>20</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>196</v>
+        <v>164</v>
       </c>
       <c r="AH26" t="s" s="2">
         <v>75</v>
@@ -4760,56 +4946,56 @@
         <v>76</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>20</v>
+        <v>78</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>104</v>
+        <v>79</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>205</v>
+        <v>171</v>
       </c>
       <c r="C27" t="s" s="2">
-        <v>205</v>
+        <v>171</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
-        <v>206</v>
+        <v>172</v>
       </c>
       <c r="F27" s="2"/>
       <c r="G27" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="I27" t="s" s="2">
         <v>20</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>20</v>
+        <v>125</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>121</v>
+        <v>20</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>197</v>
+        <v>87</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>207</v>
+        <v>173</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>208</v>
+        <v>174</v>
       </c>
       <c r="O27" t="s" s="2">
-        <v>209</v>
+        <v>175</v>
       </c>
       <c r="P27" t="s" s="2">
-        <v>210</v>
+        <v>176</v>
       </c>
       <c r="Q27" t="s" s="2">
         <v>20</v>
@@ -4834,13 +5020,13 @@
         <v>20</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>211</v>
+        <v>20</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>212</v>
+        <v>20</v>
       </c>
       <c r="AA27" t="s" s="2">
-        <v>213</v>
+        <v>20</v>
       </c>
       <c r="AB27" t="s" s="2">
         <v>20</v>
@@ -4858,30 +5044,30 @@
         <v>20</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>205</v>
+        <v>177</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="AJ27" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>104</v>
+        <v>79</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>214</v>
+        <v>178</v>
       </c>
       <c r="C28" t="s" s="2">
-        <v>214</v>
+        <v>178</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
@@ -4892,7 +5078,7 @@
         <v>75</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="I28" t="s" s="2">
         <v>20</v>
@@ -4901,22 +5087,20 @@
         <v>20</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>215</v>
+        <v>179</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>216</v>
+        <v>180</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="O28" t="s" s="2">
-        <v>218</v>
-      </c>
+        <v>181</v>
+      </c>
+      <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
-        <v>219</v>
+        <v>182</v>
       </c>
       <c r="Q28" t="s" s="2">
         <v>20</v>
@@ -4965,34 +5149,34 @@
         <v>20</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>214</v>
+        <v>178</v>
       </c>
       <c r="AH28" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="AJ28" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>220</v>
+        <v>183</v>
       </c>
       <c r="C29" t="s" s="2">
-        <v>220</v>
+        <v>183</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
-        <v>20</v>
+        <v>184</v>
       </c>
       <c r="F29" s="2"/>
       <c r="G29" t="s" s="2">
@@ -5008,21 +5192,21 @@
         <v>20</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>221</v>
+        <v>185</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>222</v>
+        <v>186</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>223</v>
-      </c>
-      <c r="O29" t="s" s="2">
-        <v>224</v>
-      </c>
-      <c r="P29" s="2"/>
+        <v>187</v>
+      </c>
+      <c r="O29" s="2"/>
+      <c r="P29" t="s" s="2">
+        <v>188</v>
+      </c>
       <c r="Q29" t="s" s="2">
         <v>20</v>
       </c>
@@ -5070,7 +5254,7 @@
         <v>20</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>220</v>
+        <v>183</v>
       </c>
       <c r="AH29" t="s" s="2">
         <v>75</v>
@@ -5082,29 +5266,29 @@
         <v>20</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>225</v>
+        <v>189</v>
       </c>
       <c r="C30" t="s" s="2">
-        <v>225</v>
+        <v>189</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
-        <v>226</v>
+        <v>190</v>
       </c>
       <c r="F30" s="2"/>
       <c r="G30" t="s" s="2">
         <v>75</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="I30" t="s" s="2">
         <v>20</v>
@@ -5113,23 +5297,21 @@
         <v>20</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>227</v>
+        <v>191</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>228</v>
+        <v>192</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>229</v>
+        <v>193</v>
       </c>
       <c r="O30" t="s" s="2">
-        <v>230</v>
-      </c>
-      <c r="P30" t="s" s="2">
-        <v>231</v>
-      </c>
+        <v>194</v>
+      </c>
+      <c r="P30" s="2"/>
       <c r="Q30" t="s" s="2">
         <v>20</v>
       </c>
@@ -5177,38 +5359,38 @@
         <v>20</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>225</v>
+        <v>189</v>
       </c>
       <c r="AH30" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="AJ30" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>232</v>
+        <v>195</v>
       </c>
       <c r="C31" t="s" s="2">
-        <v>232</v>
+        <v>195</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
-        <v>233</v>
+        <v>20</v>
       </c>
       <c r="F31" s="2"/>
       <c r="G31" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>81</v>
@@ -5217,25 +5399,25 @@
         <v>20</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>20</v>
+        <v>125</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>234</v>
+        <v>106</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>235</v>
+        <v>196</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>236</v>
+        <v>197</v>
       </c>
       <c r="O31" t="s" s="2">
-        <v>237</v>
+        <v>198</v>
       </c>
       <c r="P31" t="s" s="2">
-        <v>238</v>
+        <v>199</v>
       </c>
       <c r="Q31" t="s" s="2">
         <v>20</v>
@@ -5260,13 +5442,13 @@
         <v>20</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>20</v>
+        <v>200</v>
       </c>
       <c r="Z31" t="s" s="2">
-        <v>20</v>
+        <v>201</v>
       </c>
       <c r="AA31" t="s" s="2">
-        <v>20</v>
+        <v>202</v>
       </c>
       <c r="AB31" t="s" s="2">
         <v>20</v>
@@ -5284,10 +5466,10 @@
         <v>20</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>232</v>
+        <v>195</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>81</v>
@@ -5296,18 +5478,18 @@
         <v>20</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>239</v>
+        <v>203</v>
       </c>
       <c r="C32" t="s" s="2">
-        <v>239</v>
+        <v>203</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
@@ -5318,7 +5500,7 @@
         <v>75</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="I32" t="s" s="2">
         <v>20</v>
@@ -5327,27 +5509,29 @@
         <v>20</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>121</v>
+        <v>20</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>240</v>
+        <v>204</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>241</v>
+        <v>205</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>242</v>
+        <v>206</v>
       </c>
       <c r="O32" t="s" s="2">
-        <v>243</v>
-      </c>
-      <c r="P32" s="2"/>
+        <v>207</v>
+      </c>
+      <c r="P32" t="s" s="2">
+        <v>208</v>
+      </c>
       <c r="Q32" t="s" s="2">
         <v>20</v>
       </c>
       <c r="R32" s="2"/>
       <c r="S32" t="s" s="2">
-        <v>20</v>
+        <v>209</v>
       </c>
       <c r="T32" t="s" s="2">
         <v>20</v>
@@ -5365,13 +5549,13 @@
         <v>20</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>20</v>
+        <v>145</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>20</v>
+        <v>210</v>
       </c>
       <c r="AA32" t="s" s="2">
-        <v>20</v>
+        <v>211</v>
       </c>
       <c r="AB32" t="s" s="2">
         <v>20</v>
@@ -5389,41 +5573,41 @@
         <v>20</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>239</v>
+        <v>203</v>
       </c>
       <c r="AH32" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="AJ32" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>244</v>
+        <v>212</v>
       </c>
       <c r="C33" t="s" s="2">
-        <v>244</v>
+        <v>212</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
-        <v>20</v>
+        <v>213</v>
       </c>
       <c r="F33" s="2"/>
       <c r="G33" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="H33" t="s" s="2">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="I33" t="s" s="2">
         <v>20</v>
@@ -5432,20 +5616,22 @@
         <v>20</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>245</v>
+        <v>204</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>246</v>
+        <v>214</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>247</v>
-      </c>
-      <c r="O33" s="2"/>
+        <v>215</v>
+      </c>
+      <c r="O33" t="s" s="2">
+        <v>216</v>
+      </c>
       <c r="P33" t="s" s="2">
-        <v>248</v>
+        <v>217</v>
       </c>
       <c r="Q33" t="s" s="2">
         <v>20</v>
@@ -5470,13 +5656,11 @@
         <v>20</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Z33" t="s" s="2">
-        <v>20</v>
-      </c>
+        <v>145</v>
+      </c>
+      <c r="Z33" s="2"/>
       <c r="AA33" t="s" s="2">
-        <v>20</v>
+        <v>218</v>
       </c>
       <c r="AB33" t="s" s="2">
         <v>20</v>
@@ -5494,30 +5678,30 @@
         <v>20</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>244</v>
+        <v>212</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="AJ33" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>249</v>
+        <v>219</v>
       </c>
       <c r="C34" t="s" s="2">
-        <v>249</v>
+        <v>219</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
@@ -5528,7 +5712,7 @@
         <v>75</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="I34" t="s" s="2">
         <v>20</v>
@@ -5537,22 +5721,22 @@
         <v>20</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>250</v>
+        <v>220</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>251</v>
+        <v>221</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>252</v>
+        <v>222</v>
       </c>
       <c r="O34" t="s" s="2">
-        <v>253</v>
+        <v>223</v>
       </c>
       <c r="P34" t="s" s="2">
-        <v>254</v>
+        <v>224</v>
       </c>
       <c r="Q34" t="s" s="2">
         <v>20</v>
@@ -5601,7 +5785,7 @@
         <v>20</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>249</v>
+        <v>219</v>
       </c>
       <c r="AH34" t="s" s="2">
         <v>75</v>
@@ -5610,21 +5794,21 @@
         <v>81</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>255</v>
+        <v>20</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>256</v>
+        <v>225</v>
       </c>
       <c r="C35" t="s" s="2">
-        <v>256</v>
+        <v>225</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
@@ -5635,7 +5819,7 @@
         <v>75</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I35" t="s" s="2">
         <v>20</v>
@@ -5644,23 +5828,21 @@
         <v>20</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>20</v>
+        <v>125</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>197</v>
+        <v>226</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>257</v>
+        <v>227</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>258</v>
+        <v>228</v>
       </c>
       <c r="O35" t="s" s="2">
-        <v>259</v>
-      </c>
-      <c r="P35" t="s" s="2">
-        <v>260</v>
-      </c>
+        <v>229</v>
+      </c>
+      <c r="P35" s="2"/>
       <c r="Q35" t="s" s="2">
         <v>20</v>
       </c>
@@ -5684,65 +5866,65 @@
         <v>20</v>
       </c>
       <c r="Y35" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Z35" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AA35" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB35" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC35" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD35" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE35" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF35" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AG35" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="AH35" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI35" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ35" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AK35" t="s" s="2">
         <v>102</v>
-      </c>
-      <c r="Z35" t="s" s="2">
-        <v>261</v>
-      </c>
-      <c r="AA35" t="s" s="2">
-        <v>262</v>
-      </c>
-      <c r="AB35" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AC35" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AD35" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE35" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AF35" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AG35" t="s" s="2">
-        <v>256</v>
-      </c>
-      <c r="AH35" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AI35" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AJ35" t="s" s="2">
-        <v>263</v>
-      </c>
-      <c r="AK35" t="s" s="2">
-        <v>104</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>264</v>
+        <v>230</v>
       </c>
       <c r="C36" t="s" s="2">
-        <v>264</v>
+        <v>230</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
-        <v>265</v>
+        <v>231</v>
       </c>
       <c r="F36" s="2"/>
       <c r="G36" t="s" s="2">
         <v>75</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="I36" t="s" s="2">
         <v>20</v>
@@ -5751,22 +5933,22 @@
         <v>20</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>20</v>
+        <v>125</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>197</v>
+        <v>232</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>266</v>
+        <v>233</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>267</v>
+        <v>234</v>
       </c>
       <c r="O36" t="s" s="2">
-        <v>268</v>
+        <v>235</v>
       </c>
       <c r="P36" t="s" s="2">
-        <v>269</v>
+        <v>236</v>
       </c>
       <c r="Q36" t="s" s="2">
         <v>20</v>
@@ -5791,65 +5973,65 @@
         <v>20</v>
       </c>
       <c r="Y36" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Z36" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AA36" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB36" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC36" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD36" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE36" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF36" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AG36" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="AH36" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI36" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ36" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AK36" t="s" s="2">
         <v>102</v>
-      </c>
-      <c r="Z36" t="s" s="2">
-        <v>270</v>
-      </c>
-      <c r="AA36" t="s" s="2">
-        <v>271</v>
-      </c>
-      <c r="AB36" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AC36" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AD36" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE36" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AF36" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AG36" t="s" s="2">
-        <v>264</v>
-      </c>
-      <c r="AH36" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AI36" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ36" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AK36" t="s" s="2">
-        <v>104</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>272</v>
+        <v>237</v>
       </c>
       <c r="C37" t="s" s="2">
-        <v>272</v>
+        <v>237</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
-        <v>20</v>
+        <v>238</v>
       </c>
       <c r="F37" s="2"/>
       <c r="G37" t="s" s="2">
         <v>75</v>
       </c>
       <c r="H37" t="s" s="2">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="I37" t="s" s="2">
         <v>20</v>
@@ -5858,22 +6040,22 @@
         <v>20</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>20</v>
+        <v>125</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>273</v>
+        <v>239</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>274</v>
+        <v>240</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>275</v>
+        <v>241</v>
       </c>
       <c r="O37" t="s" s="2">
-        <v>276</v>
+        <v>242</v>
       </c>
       <c r="P37" t="s" s="2">
-        <v>277</v>
+        <v>243</v>
       </c>
       <c r="Q37" t="s" s="2">
         <v>20</v>
@@ -5922,30 +6104,30 @@
         <v>20</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>272</v>
+        <v>237</v>
       </c>
       <c r="AH37" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="AJ37" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>278</v>
+        <v>244</v>
       </c>
       <c r="C38" t="s" s="2">
-        <v>278</v>
+        <v>244</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
@@ -5965,19 +6147,19 @@
         <v>20</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>20</v>
+        <v>125</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>197</v>
+        <v>245</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>279</v>
+        <v>246</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>280</v>
+        <v>247</v>
       </c>
       <c r="O38" t="s" s="2">
-        <v>281</v>
+        <v>248</v>
       </c>
       <c r="P38" s="2"/>
       <c r="Q38" t="s" s="2">
@@ -6003,13 +6185,13 @@
         <v>20</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>211</v>
+        <v>20</v>
       </c>
       <c r="Z38" t="s" s="2">
-        <v>282</v>
+        <v>20</v>
       </c>
       <c r="AA38" t="s" s="2">
-        <v>283</v>
+        <v>20</v>
       </c>
       <c r="AB38" t="s" s="2">
         <v>20</v>
@@ -6027,7 +6209,7 @@
         <v>20</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>278</v>
+        <v>244</v>
       </c>
       <c r="AH38" t="s" s="2">
         <v>75</v>
@@ -6039,18 +6221,18 @@
         <v>20</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>284</v>
+        <v>249</v>
       </c>
       <c r="C39" t="s" s="2">
-        <v>284</v>
+        <v>249</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
@@ -6061,7 +6243,7 @@
         <v>75</v>
       </c>
       <c r="H39" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I39" t="s" s="2">
         <v>20</v>
@@ -6070,22 +6252,20 @@
         <v>20</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>20</v>
+        <v>125</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>197</v>
+        <v>250</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>285</v>
+        <v>251</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>286</v>
-      </c>
-      <c r="O39" t="s" s="2">
-        <v>287</v>
-      </c>
+        <v>252</v>
+      </c>
+      <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
-        <v>288</v>
+        <v>253</v>
       </c>
       <c r="Q39" t="s" s="2">
         <v>20</v>
@@ -6110,13 +6290,13 @@
         <v>20</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>211</v>
+        <v>20</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>289</v>
+        <v>20</v>
       </c>
       <c r="AA39" t="s" s="2">
-        <v>290</v>
+        <v>20</v>
       </c>
       <c r="AB39" t="s" s="2">
         <v>20</v>
@@ -6134,30 +6314,30 @@
         <v>20</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>284</v>
+        <v>249</v>
       </c>
       <c r="AH39" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="AJ39" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>291</v>
+        <v>254</v>
       </c>
       <c r="C40" t="s" s="2">
-        <v>291</v>
+        <v>254</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
@@ -6177,21 +6357,23 @@
         <v>20</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>20</v>
+        <v>125</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>292</v>
+        <v>255</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>293</v>
+        <v>256</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>294</v>
+        <v>257</v>
       </c>
       <c r="O40" t="s" s="2">
-        <v>295</v>
-      </c>
-      <c r="P40" s="2"/>
+        <v>258</v>
+      </c>
+      <c r="P40" t="s" s="2">
+        <v>259</v>
+      </c>
       <c r="Q40" t="s" s="2">
         <v>20</v>
       </c>
@@ -6239,7 +6421,7 @@
         <v>20</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>291</v>
+        <v>254</v>
       </c>
       <c r="AH40" t="s" s="2">
         <v>75</v>
@@ -6248,21 +6430,21 @@
         <v>81</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>20</v>
+        <v>260</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>296</v>
+        <v>261</v>
       </c>
       <c r="C41" t="s" s="2">
-        <v>296</v>
+        <v>261</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
@@ -6285,18 +6467,20 @@
         <v>20</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>297</v>
+        <v>204</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>298</v>
+        <v>262</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>299</v>
+        <v>263</v>
       </c>
       <c r="O41" t="s" s="2">
-        <v>300</v>
-      </c>
-      <c r="P41" s="2"/>
+        <v>264</v>
+      </c>
+      <c r="P41" t="s" s="2">
+        <v>265</v>
+      </c>
       <c r="Q41" t="s" s="2">
         <v>20</v>
       </c>
@@ -6320,13 +6504,13 @@
         <v>20</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>20</v>
+        <v>107</v>
       </c>
       <c r="Z41" t="s" s="2">
-        <v>20</v>
+        <v>266</v>
       </c>
       <c r="AA41" t="s" s="2">
-        <v>20</v>
+        <v>267</v>
       </c>
       <c r="AB41" t="s" s="2">
         <v>20</v>
@@ -6344,7 +6528,7 @@
         <v>20</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>296</v>
+        <v>261</v>
       </c>
       <c r="AH41" t="s" s="2">
         <v>75</v>
@@ -6353,25 +6537,25 @@
         <v>81</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>20</v>
+        <v>268</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>301</v>
+        <v>269</v>
       </c>
       <c r="C42" t="s" s="2">
-        <v>301</v>
+        <v>269</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
-        <v>20</v>
+        <v>270</v>
       </c>
       <c r="F42" s="2"/>
       <c r="G42" t="s" s="2">
@@ -6390,19 +6574,19 @@
         <v>20</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>302</v>
+        <v>204</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>303</v>
+        <v>271</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>304</v>
+        <v>272</v>
       </c>
       <c r="O42" t="s" s="2">
-        <v>305</v>
+        <v>273</v>
       </c>
       <c r="P42" t="s" s="2">
-        <v>306</v>
+        <v>274</v>
       </c>
       <c r="Q42" t="s" s="2">
         <v>20</v>
@@ -6427,13 +6611,13 @@
         <v>20</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>20</v>
+        <v>107</v>
       </c>
       <c r="Z42" t="s" s="2">
-        <v>20</v>
+        <v>275</v>
       </c>
       <c r="AA42" t="s" s="2">
-        <v>20</v>
+        <v>276</v>
       </c>
       <c r="AB42" t="s" s="2">
         <v>20</v>
@@ -6451,7 +6635,7 @@
         <v>20</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>301</v>
+        <v>269</v>
       </c>
       <c r="AH42" t="s" s="2">
         <v>75</v>
@@ -6463,18 +6647,18 @@
         <v>20</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>307</v>
+        <v>102</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>308</v>
+        <v>277</v>
       </c>
       <c r="C43" t="s" s="2">
-        <v>308</v>
+        <v>277</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
@@ -6485,7 +6669,7 @@
         <v>75</v>
       </c>
       <c r="H43" t="s" s="2">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="I43" t="s" s="2">
         <v>20</v>
@@ -6497,16 +6681,20 @@
         <v>20</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>82</v>
+        <v>278</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>83</v>
+        <v>279</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="O43" s="2"/>
-      <c r="P43" s="2"/>
+        <v>280</v>
+      </c>
+      <c r="O43" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="P43" t="s" s="2">
+        <v>282</v>
+      </c>
       <c r="Q43" t="s" s="2">
         <v>20</v>
       </c>
@@ -6554,41 +6742,41 @@
         <v>20</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>85</v>
+        <v>277</v>
       </c>
       <c r="AH43" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="AJ43" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>20</v>
+        <v>102</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>309</v>
+        <v>283</v>
       </c>
       <c r="C44" t="s" s="2">
-        <v>309</v>
+        <v>283</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
-        <v>165</v>
+        <v>20</v>
       </c>
       <c r="F44" s="2"/>
       <c r="G44" t="s" s="2">
         <v>75</v>
       </c>
       <c r="H44" t="s" s="2">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="I44" t="s" s="2">
         <v>20</v>
@@ -6600,16 +6788,16 @@
         <v>20</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>87</v>
+        <v>204</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>310</v>
+        <v>284</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>311</v>
+        <v>285</v>
       </c>
       <c r="O44" t="s" s="2">
-        <v>168</v>
+        <v>286</v>
       </c>
       <c r="P44" s="2"/>
       <c r="Q44" t="s" s="2">
@@ -6635,13 +6823,13 @@
         <v>20</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>20</v>
+        <v>287</v>
       </c>
       <c r="Z44" t="s" s="2">
-        <v>20</v>
+        <v>288</v>
       </c>
       <c r="AA44" t="s" s="2">
-        <v>20</v>
+        <v>289</v>
       </c>
       <c r="AB44" t="s" s="2">
         <v>20</v>
@@ -6659,65 +6847,65 @@
         <v>20</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>92</v>
+        <v>283</v>
       </c>
       <c r="AH44" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="AJ44" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>79</v>
+        <v>102</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>312</v>
+        <v>290</v>
       </c>
       <c r="C45" t="s" s="2">
-        <v>312</v>
+        <v>290</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
-        <v>313</v>
+        <v>20</v>
       </c>
       <c r="F45" s="2"/>
       <c r="G45" t="s" s="2">
         <v>75</v>
       </c>
       <c r="H45" t="s" s="2">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I45" t="s" s="2">
         <v>20</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>121</v>
+        <v>20</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>121</v>
+        <v>20</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>87</v>
+        <v>204</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>314</v>
+        <v>291</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>315</v>
+        <v>292</v>
       </c>
       <c r="O45" t="s" s="2">
-        <v>168</v>
+        <v>293</v>
       </c>
       <c r="P45" t="s" s="2">
-        <v>169</v>
+        <v>294</v>
       </c>
       <c r="Q45" t="s" s="2">
         <v>20</v>
@@ -6742,13 +6930,13 @@
         <v>20</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>20</v>
+        <v>287</v>
       </c>
       <c r="Z45" t="s" s="2">
-        <v>20</v>
+        <v>295</v>
       </c>
       <c r="AA45" t="s" s="2">
-        <v>20</v>
+        <v>296</v>
       </c>
       <c r="AB45" t="s" s="2">
         <v>20</v>
@@ -6766,30 +6954,30 @@
         <v>20</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>316</v>
+        <v>290</v>
       </c>
       <c r="AH45" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="AJ45" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>79</v>
+        <v>102</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>317</v>
+        <v>297</v>
       </c>
       <c r="C46" t="s" s="2">
-        <v>317</v>
+        <v>297</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
@@ -6800,7 +6988,7 @@
         <v>75</v>
       </c>
       <c r="H46" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="I46" t="s" s="2">
         <v>20</v>
@@ -6812,15 +7000,17 @@
         <v>20</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>318</v>
+        <v>298</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>319</v>
+        <v>299</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>320</v>
-      </c>
-      <c r="O46" s="2"/>
+        <v>300</v>
+      </c>
+      <c r="O46" t="s" s="2">
+        <v>301</v>
+      </c>
       <c r="P46" s="2"/>
       <c r="Q46" t="s" s="2">
         <v>20</v>
@@ -6869,7 +7059,7 @@
         <v>20</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>317</v>
+        <v>297</v>
       </c>
       <c r="AH46" t="s" s="2">
         <v>75</v>
@@ -6878,21 +7068,21 @@
         <v>81</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>321</v>
+        <v>20</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>322</v>
+        <v>302</v>
       </c>
       <c r="C47" t="s" s="2">
-        <v>322</v>
+        <v>302</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
@@ -6903,7 +7093,7 @@
         <v>75</v>
       </c>
       <c r="H47" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="I47" t="s" s="2">
         <v>20</v>
@@ -6915,15 +7105,17 @@
         <v>20</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>318</v>
+        <v>303</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>323</v>
+        <v>304</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>324</v>
-      </c>
-      <c r="O47" s="2"/>
+        <v>305</v>
+      </c>
+      <c r="O47" t="s" s="2">
+        <v>306</v>
+      </c>
       <c r="P47" s="2"/>
       <c r="Q47" t="s" s="2">
         <v>20</v>
@@ -6972,7 +7164,7 @@
         <v>20</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>322</v>
+        <v>302</v>
       </c>
       <c r="AH47" t="s" s="2">
         <v>75</v>
@@ -6981,21 +7173,21 @@
         <v>81</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>321</v>
+        <v>20</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>325</v>
+        <v>307</v>
       </c>
       <c r="C48" t="s" s="2">
-        <v>325</v>
+        <v>307</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
@@ -7006,7 +7198,7 @@
         <v>75</v>
       </c>
       <c r="H48" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="I48" t="s" s="2">
         <v>20</v>
@@ -7018,19 +7210,19 @@
         <v>20</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>197</v>
+        <v>308</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>326</v>
+        <v>309</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>327</v>
+        <v>310</v>
       </c>
       <c r="O48" t="s" s="2">
-        <v>328</v>
+        <v>311</v>
       </c>
       <c r="P48" t="s" s="2">
-        <v>329</v>
+        <v>312</v>
       </c>
       <c r="Q48" t="s" s="2">
         <v>20</v>
@@ -7055,13 +7247,13 @@
         <v>20</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>141</v>
+        <v>20</v>
       </c>
       <c r="Z48" t="s" s="2">
-        <v>330</v>
+        <v>20</v>
       </c>
       <c r="AA48" t="s" s="2">
-        <v>331</v>
+        <v>20</v>
       </c>
       <c r="AB48" t="s" s="2">
         <v>20</v>
@@ -7079,30 +7271,30 @@
         <v>20</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>325</v>
+        <v>307</v>
       </c>
       <c r="AH48" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="AJ48" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>104</v>
+        <v>313</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>332</v>
+        <v>314</v>
       </c>
       <c r="C49" t="s" s="2">
-        <v>332</v>
+        <v>314</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
@@ -7113,7 +7305,7 @@
         <v>75</v>
       </c>
       <c r="H49" t="s" s="2">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="I49" t="s" s="2">
         <v>20</v>
@@ -7125,20 +7317,16 @@
         <v>20</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>197</v>
+        <v>82</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>333</v>
+        <v>83</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>334</v>
-      </c>
-      <c r="O49" t="s" s="2">
-        <v>335</v>
-      </c>
-      <c r="P49" t="s" s="2">
-        <v>336</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="O49" s="2"/>
+      <c r="P49" s="2"/>
       <c r="Q49" t="s" s="2">
         <v>20</v>
       </c>
@@ -7162,13 +7350,13 @@
         <v>20</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>211</v>
+        <v>20</v>
       </c>
       <c r="Z49" t="s" s="2">
-        <v>337</v>
+        <v>20</v>
       </c>
       <c r="AA49" t="s" s="2">
-        <v>338</v>
+        <v>20</v>
       </c>
       <c r="AB49" t="s" s="2">
         <v>20</v>
@@ -7186,41 +7374,41 @@
         <v>20</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>332</v>
+        <v>85</v>
       </c>
       <c r="AH49" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="AJ49" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>104</v>
+        <v>20</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>339</v>
+        <v>315</v>
       </c>
       <c r="C50" t="s" s="2">
-        <v>339</v>
+        <v>315</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
-        <v>20</v>
+        <v>172</v>
       </c>
       <c r="F50" s="2"/>
       <c r="G50" t="s" s="2">
         <v>75</v>
       </c>
       <c r="H50" t="s" s="2">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="I50" t="s" s="2">
         <v>20</v>
@@ -7232,18 +7420,18 @@
         <v>20</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>340</v>
+        <v>87</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>341</v>
+        <v>316</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>342</v>
-      </c>
-      <c r="O50" s="2"/>
-      <c r="P50" t="s" s="2">
-        <v>343</v>
-      </c>
+        <v>317</v>
+      </c>
+      <c r="O50" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="P50" s="2"/>
       <c r="Q50" t="s" s="2">
         <v>20</v>
       </c>
@@ -7291,62 +7479,66 @@
         <v>20</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>339</v>
+        <v>92</v>
       </c>
       <c r="AH50" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="AJ50" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>104</v>
+        <v>79</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>344</v>
+        <v>318</v>
       </c>
       <c r="C51" t="s" s="2">
-        <v>344</v>
+        <v>318</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
-        <v>20</v>
+        <v>319</v>
       </c>
       <c r="F51" s="2"/>
       <c r="G51" t="s" s="2">
         <v>75</v>
       </c>
       <c r="H51" t="s" s="2">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="I51" t="s" s="2">
         <v>20</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>20</v>
+        <v>125</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>20</v>
+        <v>125</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>345</v>
+        <v>320</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>346</v>
-      </c>
-      <c r="O51" s="2"/>
-      <c r="P51" s="2"/>
+        <v>321</v>
+      </c>
+      <c r="O51" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="P51" t="s" s="2">
+        <v>176</v>
+      </c>
       <c r="Q51" t="s" s="2">
         <v>20</v>
       </c>
@@ -7394,30 +7586,30 @@
         <v>20</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>344</v>
+        <v>322</v>
       </c>
       <c r="AH51" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="AJ51" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>104</v>
+        <v>79</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>347</v>
+        <v>323</v>
       </c>
       <c r="C52" t="s" s="2">
-        <v>347</v>
+        <v>323</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
@@ -7428,7 +7620,7 @@
         <v>75</v>
       </c>
       <c r="H52" t="s" s="2">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="I52" t="s" s="2">
         <v>20</v>
@@ -7437,20 +7629,18 @@
         <v>20</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>121</v>
+        <v>20</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>348</v>
+        <v>324</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>349</v>
+        <v>325</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>350</v>
-      </c>
-      <c r="O52" t="s" s="2">
-        <v>351</v>
-      </c>
+        <v>326</v>
+      </c>
+      <c r="O52" s="2"/>
       <c r="P52" s="2"/>
       <c r="Q52" t="s" s="2">
         <v>20</v>
@@ -7499,30 +7689,30 @@
         <v>20</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>347</v>
+        <v>323</v>
       </c>
       <c r="AH52" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>20</v>
+        <v>327</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>352</v>
+        <v>328</v>
       </c>
       <c r="C53" t="s" s="2">
-        <v>352</v>
+        <v>328</v>
       </c>
       <c r="D53" s="2"/>
       <c r="E53" t="s" s="2">
@@ -7533,7 +7723,7 @@
         <v>75</v>
       </c>
       <c r="H53" t="s" s="2">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="I53" t="s" s="2">
         <v>20</v>
@@ -7542,20 +7732,18 @@
         <v>20</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>121</v>
+        <v>20</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>353</v>
+        <v>324</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>354</v>
+        <v>329</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>355</v>
-      </c>
-      <c r="O53" t="s" s="2">
-        <v>356</v>
-      </c>
+        <v>330</v>
+      </c>
+      <c r="O53" s="2"/>
       <c r="P53" s="2"/>
       <c r="Q53" t="s" s="2">
         <v>20</v>
@@ -7604,30 +7792,30 @@
         <v>20</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>352</v>
+        <v>328</v>
       </c>
       <c r="AH53" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>20</v>
+        <v>327</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>357</v>
+        <v>331</v>
       </c>
       <c r="C54" t="s" s="2">
-        <v>357</v>
+        <v>331</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" t="s" s="2">
@@ -7638,7 +7826,7 @@
         <v>75</v>
       </c>
       <c r="H54" t="s" s="2">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="I54" t="s" s="2">
         <v>20</v>
@@ -7647,22 +7835,22 @@
         <v>20</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>121</v>
+        <v>20</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>302</v>
+        <v>204</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>358</v>
+        <v>332</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>359</v>
+        <v>333</v>
       </c>
       <c r="O54" t="s" s="2">
-        <v>360</v>
+        <v>334</v>
       </c>
       <c r="P54" t="s" s="2">
-        <v>361</v>
+        <v>335</v>
       </c>
       <c r="Q54" t="s" s="2">
         <v>20</v>
@@ -7687,52 +7875,54 @@
         <v>20</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>20</v>
+        <v>145</v>
       </c>
       <c r="Z54" t="s" s="2">
-        <v>20</v>
+        <v>336</v>
       </c>
       <c r="AA54" t="s" s="2">
-        <v>20</v>
+        <v>337</v>
       </c>
       <c r="AB54" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AC54" t="s" s="2">
-        <v>362</v>
-      </c>
-      <c r="AD54" s="2"/>
+        <v>20</v>
+      </c>
+      <c r="AD54" t="s" s="2">
+        <v>20</v>
+      </c>
       <c r="AE54" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>91</v>
+        <v>20</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>357</v>
+        <v>331</v>
       </c>
       <c r="AH54" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="AJ54" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>363</v>
+        <v>338</v>
       </c>
       <c r="C55" t="s" s="2">
-        <v>363</v>
+        <v>338</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" t="s" s="2">
@@ -7743,7 +7933,7 @@
         <v>75</v>
       </c>
       <c r="H55" t="s" s="2">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="I55" t="s" s="2">
         <v>20</v>
@@ -7755,16 +7945,20 @@
         <v>20</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>82</v>
+        <v>204</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>83</v>
+        <v>339</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="O55" s="2"/>
-      <c r="P55" s="2"/>
+        <v>340</v>
+      </c>
+      <c r="O55" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="P55" t="s" s="2">
+        <v>342</v>
+      </c>
       <c r="Q55" t="s" s="2">
         <v>20</v>
       </c>
@@ -7788,13 +7982,13 @@
         <v>20</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>20</v>
+        <v>287</v>
       </c>
       <c r="Z55" t="s" s="2">
-        <v>20</v>
+        <v>343</v>
       </c>
       <c r="AA55" t="s" s="2">
-        <v>20</v>
+        <v>344</v>
       </c>
       <c r="AB55" t="s" s="2">
         <v>20</v>
@@ -7812,41 +8006,41 @@
         <v>20</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>85</v>
+        <v>338</v>
       </c>
       <c r="AH55" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="AJ55" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>20</v>
+        <v>102</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>364</v>
+        <v>345</v>
       </c>
       <c r="C56" t="s" s="2">
-        <v>364</v>
+        <v>345</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" t="s" s="2">
-        <v>165</v>
+        <v>20</v>
       </c>
       <c r="F56" s="2"/>
       <c r="G56" t="s" s="2">
         <v>75</v>
       </c>
       <c r="H56" t="s" s="2">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="I56" t="s" s="2">
         <v>20</v>
@@ -7858,18 +8052,18 @@
         <v>20</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>87</v>
+        <v>346</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>310</v>
+        <v>347</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>311</v>
-      </c>
-      <c r="O56" t="s" s="2">
-        <v>168</v>
-      </c>
-      <c r="P56" s="2"/>
+        <v>348</v>
+      </c>
+      <c r="O56" s="2"/>
+      <c r="P56" t="s" s="2">
+        <v>349</v>
+      </c>
       <c r="Q56" t="s" s="2">
         <v>20</v>
       </c>
@@ -7917,66 +8111,62 @@
         <v>20</v>
       </c>
       <c r="AG56" t="s" s="2">
-        <v>92</v>
+        <v>345</v>
       </c>
       <c r="AH56" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="AJ56" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>79</v>
+        <v>102</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>365</v>
+        <v>350</v>
       </c>
       <c r="C57" t="s" s="2">
-        <v>365</v>
+        <v>350</v>
       </c>
       <c r="D57" s="2"/>
       <c r="E57" t="s" s="2">
-        <v>313</v>
+        <v>20</v>
       </c>
       <c r="F57" s="2"/>
       <c r="G57" t="s" s="2">
         <v>75</v>
       </c>
       <c r="H57" t="s" s="2">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="I57" t="s" s="2">
         <v>20</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>121</v>
+        <v>20</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>121</v>
+        <v>20</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>314</v>
+        <v>351</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>315</v>
-      </c>
-      <c r="O57" t="s" s="2">
-        <v>168</v>
-      </c>
-      <c r="P57" t="s" s="2">
-        <v>169</v>
-      </c>
+        <v>352</v>
+      </c>
+      <c r="O57" s="2"/>
+      <c r="P57" s="2"/>
       <c r="Q57" t="s" s="2">
         <v>20</v>
       </c>
@@ -8024,30 +8214,30 @@
         <v>20</v>
       </c>
       <c r="AG57" t="s" s="2">
-        <v>316</v>
+        <v>350</v>
       </c>
       <c r="AH57" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="AJ57" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>79</v>
+        <v>102</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>366</v>
+        <v>353</v>
       </c>
       <c r="C58" t="s" s="2">
-        <v>366</v>
+        <v>353</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" t="s" s="2">
@@ -8055,10 +8245,10 @@
       </c>
       <c r="F58" s="2"/>
       <c r="G58" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="H58" t="s" s="2">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="I58" t="s" s="2">
         <v>20</v>
@@ -8067,23 +8257,21 @@
         <v>20</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>197</v>
+        <v>354</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>367</v>
+        <v>355</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>368</v>
+        <v>356</v>
       </c>
       <c r="O58" t="s" s="2">
-        <v>369</v>
-      </c>
-      <c r="P58" t="s" s="2">
-        <v>210</v>
-      </c>
+        <v>357</v>
+      </c>
+      <c r="P58" s="2"/>
       <c r="Q58" t="s" s="2">
         <v>20</v>
       </c>
@@ -8107,13 +8295,13 @@
         <v>20</v>
       </c>
       <c r="Y58" t="s" s="2">
-        <v>211</v>
+        <v>20</v>
       </c>
       <c r="Z58" t="s" s="2">
-        <v>212</v>
+        <v>20</v>
       </c>
       <c r="AA58" t="s" s="2">
-        <v>213</v>
+        <v>20</v>
       </c>
       <c r="AB58" t="s" s="2">
         <v>20</v>
@@ -8131,30 +8319,30 @@
         <v>20</v>
       </c>
       <c r="AG58" t="s" s="2">
-        <v>366</v>
+        <v>353</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="AJ58" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>370</v>
+        <v>358</v>
       </c>
       <c r="C59" t="s" s="2">
-        <v>370</v>
+        <v>358</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" t="s" s="2">
@@ -8165,7 +8353,7 @@
         <v>75</v>
       </c>
       <c r="H59" t="s" s="2">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="I59" t="s" s="2">
         <v>20</v>
@@ -8174,23 +8362,21 @@
         <v>20</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>250</v>
+        <v>359</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>371</v>
+        <v>360</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>252</v>
+        <v>361</v>
       </c>
       <c r="O59" t="s" s="2">
-        <v>372</v>
-      </c>
-      <c r="P59" t="s" s="2">
-        <v>254</v>
-      </c>
+        <v>362</v>
+      </c>
+      <c r="P59" s="2"/>
       <c r="Q59" t="s" s="2">
         <v>20</v>
       </c>
@@ -8238,30 +8424,30 @@
         <v>20</v>
       </c>
       <c r="AG59" t="s" s="2">
-        <v>370</v>
+        <v>358</v>
       </c>
       <c r="AH59" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="AJ59" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>373</v>
+        <v>363</v>
       </c>
       <c r="C60" t="s" s="2">
-        <v>373</v>
+        <v>363</v>
       </c>
       <c r="D60" s="2"/>
       <c r="E60" t="s" s="2">
@@ -8272,7 +8458,7 @@
         <v>75</v>
       </c>
       <c r="H60" t="s" s="2">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="I60" t="s" s="2">
         <v>20</v>
@@ -8281,22 +8467,22 @@
         <v>20</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>20</v>
+        <v>125</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>197</v>
+        <v>308</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>374</v>
+        <v>364</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>375</v>
+        <v>365</v>
       </c>
       <c r="O60" t="s" s="2">
-        <v>376</v>
+        <v>366</v>
       </c>
       <c r="P60" t="s" s="2">
-        <v>260</v>
+        <v>367</v>
       </c>
       <c r="Q60" t="s" s="2">
         <v>20</v>
@@ -8321,65 +8507,63 @@
         <v>20</v>
       </c>
       <c r="Y60" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Z60" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AA60" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB60" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC60" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="AD60" s="2"/>
+      <c r="AE60" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF60" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AG60" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="AH60" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI60" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ60" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AK60" t="s" s="2">
         <v>102</v>
-      </c>
-      <c r="Z60" t="s" s="2">
-        <v>261</v>
-      </c>
-      <c r="AA60" t="s" s="2">
-        <v>262</v>
-      </c>
-      <c r="AB60" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AC60" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AD60" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE60" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AF60" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AG60" t="s" s="2">
-        <v>373</v>
-      </c>
-      <c r="AH60" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AI60" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AJ60" t="s" s="2">
-        <v>263</v>
-      </c>
-      <c r="AK60" t="s" s="2">
-        <v>104</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="C61" t="s" s="2">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="D61" s="2"/>
       <c r="E61" t="s" s="2">
-        <v>265</v>
+        <v>20</v>
       </c>
       <c r="F61" s="2"/>
       <c r="G61" t="s" s="2">
         <v>75</v>
       </c>
       <c r="H61" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="I61" t="s" s="2">
         <v>20</v>
@@ -8391,20 +8575,16 @@
         <v>20</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>197</v>
+        <v>82</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>266</v>
+        <v>83</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>267</v>
-      </c>
-      <c r="O61" t="s" s="2">
-        <v>268</v>
-      </c>
-      <c r="P61" t="s" s="2">
-        <v>269</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="O61" s="2"/>
+      <c r="P61" s="2"/>
       <c r="Q61" t="s" s="2">
         <v>20</v>
       </c>
@@ -8428,13 +8608,13 @@
         <v>20</v>
       </c>
       <c r="Y61" t="s" s="2">
-        <v>102</v>
+        <v>20</v>
       </c>
       <c r="Z61" t="s" s="2">
-        <v>270</v>
+        <v>20</v>
       </c>
       <c r="AA61" t="s" s="2">
-        <v>271</v>
+        <v>20</v>
       </c>
       <c r="AB61" t="s" s="2">
         <v>20</v>
@@ -8452,41 +8632,41 @@
         <v>20</v>
       </c>
       <c r="AG61" t="s" s="2">
-        <v>377</v>
+        <v>85</v>
       </c>
       <c r="AH61" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="AJ61" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>104</v>
+        <v>20</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>378</v>
+        <v>370</v>
       </c>
       <c r="C62" t="s" s="2">
-        <v>378</v>
+        <v>370</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" t="s" s="2">
-        <v>20</v>
+        <v>172</v>
       </c>
       <c r="F62" s="2"/>
       <c r="G62" t="s" s="2">
         <v>75</v>
       </c>
       <c r="H62" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I62" t="s" s="2">
         <v>20</v>
@@ -8498,20 +8678,18 @@
         <v>20</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>20</v>
+        <v>87</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>379</v>
+        <v>316</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>380</v>
+        <v>317</v>
       </c>
       <c r="O62" t="s" s="2">
-        <v>305</v>
-      </c>
-      <c r="P62" t="s" s="2">
-        <v>306</v>
-      </c>
+        <v>175</v>
+      </c>
+      <c r="P62" s="2"/>
       <c r="Q62" t="s" s="2">
         <v>20</v>
       </c>
@@ -8559,7 +8737,7 @@
         <v>20</v>
       </c>
       <c r="AG62" t="s" s="2">
-        <v>378</v>
+        <v>92</v>
       </c>
       <c r="AH62" t="s" s="2">
         <v>75</v>
@@ -8571,24 +8749,22 @@
         <v>20</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>104</v>
+        <v>79</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>381</v>
+        <v>371</v>
       </c>
       <c r="C63" t="s" s="2">
-        <v>357</v>
-      </c>
-      <c r="D63" t="s" s="2">
-        <v>382</v>
-      </c>
+        <v>371</v>
+      </c>
+      <c r="D63" s="2"/>
       <c r="E63" t="s" s="2">
-        <v>20</v>
+        <v>319</v>
       </c>
       <c r="F63" s="2"/>
       <c r="G63" t="s" s="2">
@@ -8601,25 +8777,25 @@
         <v>20</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>20</v>
+        <v>125</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>302</v>
+        <v>87</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>383</v>
+        <v>320</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>359</v>
+        <v>321</v>
       </c>
       <c r="O63" t="s" s="2">
-        <v>360</v>
+        <v>175</v>
       </c>
       <c r="P63" t="s" s="2">
-        <v>361</v>
+        <v>176</v>
       </c>
       <c r="Q63" t="s" s="2">
         <v>20</v>
@@ -8668,7 +8844,7 @@
         <v>20</v>
       </c>
       <c r="AG63" t="s" s="2">
-        <v>357</v>
+        <v>322</v>
       </c>
       <c r="AH63" t="s" s="2">
         <v>75</v>
@@ -8680,18 +8856,18 @@
         <v>20</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>104</v>
+        <v>79</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>384</v>
+        <v>372</v>
       </c>
       <c r="C64" t="s" s="2">
-        <v>363</v>
+        <v>372</v>
       </c>
       <c r="D64" s="2"/>
       <c r="E64" t="s" s="2">
@@ -8699,7 +8875,7 @@
       </c>
       <c r="F64" s="2"/>
       <c r="G64" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="H64" t="s" s="2">
         <v>81</v>
@@ -8711,19 +8887,23 @@
         <v>20</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>20</v>
+        <v>125</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>82</v>
+        <v>204</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>83</v>
+        <v>373</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="O64" s="2"/>
-      <c r="P64" s="2"/>
+        <v>374</v>
+      </c>
+      <c r="O64" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="P64" t="s" s="2">
+        <v>217</v>
+      </c>
       <c r="Q64" t="s" s="2">
         <v>20</v>
       </c>
@@ -8747,13 +8927,13 @@
         <v>20</v>
       </c>
       <c r="Y64" t="s" s="2">
-        <v>20</v>
+        <v>287</v>
       </c>
       <c r="Z64" t="s" s="2">
-        <v>20</v>
+        <v>376</v>
       </c>
       <c r="AA64" t="s" s="2">
-        <v>20</v>
+        <v>377</v>
       </c>
       <c r="AB64" t="s" s="2">
         <v>20</v>
@@ -8771,10 +8951,10 @@
         <v>20</v>
       </c>
       <c r="AG64" t="s" s="2">
-        <v>85</v>
+        <v>372</v>
       </c>
       <c r="AH64" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="AI64" t="s" s="2">
         <v>81</v>
@@ -8783,29 +8963,29 @@
         <v>20</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>20</v>
+        <v>102</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>385</v>
+        <v>378</v>
       </c>
       <c r="C65" t="s" s="2">
-        <v>364</v>
+        <v>378</v>
       </c>
       <c r="D65" s="2"/>
       <c r="E65" t="s" s="2">
-        <v>165</v>
+        <v>20</v>
       </c>
       <c r="F65" s="2"/>
       <c r="G65" t="s" s="2">
         <v>75</v>
       </c>
       <c r="H65" t="s" s="2">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="I65" t="s" s="2">
         <v>20</v>
@@ -8814,21 +8994,23 @@
         <v>20</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>20</v>
+        <v>125</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>87</v>
+        <v>255</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>310</v>
+        <v>379</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>311</v>
+        <v>257</v>
       </c>
       <c r="O65" t="s" s="2">
-        <v>168</v>
-      </c>
-      <c r="P65" s="2"/>
+        <v>380</v>
+      </c>
+      <c r="P65" t="s" s="2">
+        <v>259</v>
+      </c>
       <c r="Q65" t="s" s="2">
         <v>20</v>
       </c>
@@ -8876,65 +9058,65 @@
         <v>20</v>
       </c>
       <c r="AG65" t="s" s="2">
-        <v>92</v>
+        <v>378</v>
       </c>
       <c r="AH65" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI65" t="s" s="2">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="AJ65" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>79</v>
+        <v>102</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="C66" t="s" s="2">
-        <v>365</v>
+        <v>381</v>
       </c>
       <c r="D66" s="2"/>
       <c r="E66" t="s" s="2">
-        <v>313</v>
+        <v>20</v>
       </c>
       <c r="F66" s="2"/>
       <c r="G66" t="s" s="2">
         <v>75</v>
       </c>
       <c r="H66" t="s" s="2">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="I66" t="s" s="2">
         <v>20</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>121</v>
+        <v>20</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>121</v>
+        <v>20</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>87</v>
+        <v>204</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>314</v>
+        <v>382</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>315</v>
+        <v>383</v>
       </c>
       <c r="O66" t="s" s="2">
-        <v>168</v>
+        <v>384</v>
       </c>
       <c r="P66" t="s" s="2">
-        <v>169</v>
+        <v>265</v>
       </c>
       <c r="Q66" t="s" s="2">
         <v>20</v>
@@ -8959,13 +9141,13 @@
         <v>20</v>
       </c>
       <c r="Y66" t="s" s="2">
-        <v>20</v>
+        <v>107</v>
       </c>
       <c r="Z66" t="s" s="2">
-        <v>20</v>
+        <v>266</v>
       </c>
       <c r="AA66" t="s" s="2">
-        <v>20</v>
+        <v>267</v>
       </c>
       <c r="AB66" t="s" s="2">
         <v>20</v>
@@ -8983,41 +9165,41 @@
         <v>20</v>
       </c>
       <c r="AG66" t="s" s="2">
-        <v>316</v>
+        <v>381</v>
       </c>
       <c r="AH66" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI66" t="s" s="2">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>20</v>
+        <v>268</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>79</v>
+        <v>102</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="C67" t="s" s="2">
-        <v>366</v>
+        <v>385</v>
       </c>
       <c r="D67" s="2"/>
       <c r="E67" t="s" s="2">
-        <v>20</v>
+        <v>270</v>
       </c>
       <c r="F67" s="2"/>
       <c r="G67" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="H67" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="I67" t="s" s="2">
         <v>20</v>
@@ -9026,22 +9208,22 @@
         <v>20</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>121</v>
+        <v>20</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>388</v>
+        <v>271</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>368</v>
+        <v>272</v>
       </c>
       <c r="O67" t="s" s="2">
-        <v>369</v>
+        <v>273</v>
       </c>
       <c r="P67" t="s" s="2">
-        <v>210</v>
+        <v>274</v>
       </c>
       <c r="Q67" t="s" s="2">
         <v>20</v>
@@ -9066,52 +9248,54 @@
         <v>20</v>
       </c>
       <c r="Y67" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="Z67" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="AA67" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="AB67" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC67" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD67" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE67" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF67" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AG67" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="AH67" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI67" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ67" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AK67" t="s" s="2">
         <v>102</v>
-      </c>
-      <c r="Z67" s="2"/>
-      <c r="AA67" t="s" s="2">
-        <v>389</v>
-      </c>
-      <c r="AB67" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AC67" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AD67" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE67" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AF67" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AG67" t="s" s="2">
-        <v>366</v>
-      </c>
-      <c r="AH67" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI67" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AJ67" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AK67" t="s" s="2">
-        <v>104</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="C68" t="s" s="2">
-        <v>370</v>
+        <v>386</v>
       </c>
       <c r="D68" s="2"/>
       <c r="E68" t="s" s="2">
@@ -9122,7 +9306,7 @@
         <v>75</v>
       </c>
       <c r="H68" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="I68" t="s" s="2">
         <v>20</v>
@@ -9131,22 +9315,22 @@
         <v>20</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>121</v>
+        <v>20</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>391</v>
+        <v>20</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>371</v>
+        <v>387</v>
       </c>
       <c r="N68" t="s" s="2">
-        <v>252</v>
+        <v>388</v>
       </c>
       <c r="O68" t="s" s="2">
-        <v>372</v>
+        <v>311</v>
       </c>
       <c r="P68" t="s" s="2">
-        <v>254</v>
+        <v>312</v>
       </c>
       <c r="Q68" t="s" s="2">
         <v>20</v>
@@ -9195,32 +9379,34 @@
         <v>20</v>
       </c>
       <c r="AG68" t="s" s="2">
-        <v>370</v>
+        <v>386</v>
       </c>
       <c r="AH68" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI68" t="s" s="2">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="AJ68" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="C69" t="s" s="2">
-        <v>373</v>
-      </c>
-      <c r="D69" s="2"/>
+        <v>363</v>
+      </c>
+      <c r="D69" t="s" s="2">
+        <v>390</v>
+      </c>
       <c r="E69" t="s" s="2">
         <v>20</v>
       </c>
@@ -9229,7 +9415,7 @@
         <v>75</v>
       </c>
       <c r="H69" t="s" s="2">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="I69" t="s" s="2">
         <v>20</v>
@@ -9238,22 +9424,22 @@
         <v>20</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>20</v>
+        <v>125</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>197</v>
+        <v>308</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>374</v>
+        <v>391</v>
       </c>
       <c r="N69" t="s" s="2">
-        <v>375</v>
+        <v>365</v>
       </c>
       <c r="O69" t="s" s="2">
-        <v>376</v>
+        <v>366</v>
       </c>
       <c r="P69" t="s" s="2">
-        <v>260</v>
+        <v>367</v>
       </c>
       <c r="Q69" t="s" s="2">
         <v>20</v>
@@ -9278,65 +9464,65 @@
         <v>20</v>
       </c>
       <c r="Y69" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Z69" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AA69" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB69" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC69" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD69" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE69" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF69" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AG69" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="AH69" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI69" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ69" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AK69" t="s" s="2">
         <v>102</v>
-      </c>
-      <c r="Z69" t="s" s="2">
-        <v>261</v>
-      </c>
-      <c r="AA69" t="s" s="2">
-        <v>262</v>
-      </c>
-      <c r="AB69" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AC69" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AD69" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE69" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AF69" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AG69" t="s" s="2">
-        <v>373</v>
-      </c>
-      <c r="AH69" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AI69" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AJ69" t="s" s="2">
-        <v>263</v>
-      </c>
-      <c r="AK69" t="s" s="2">
-        <v>104</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C70" t="s" s="2">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="D70" s="2"/>
       <c r="E70" t="s" s="2">
-        <v>265</v>
+        <v>20</v>
       </c>
       <c r="F70" s="2"/>
       <c r="G70" t="s" s="2">
         <v>75</v>
       </c>
       <c r="H70" t="s" s="2">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="I70" t="s" s="2">
         <v>20</v>
@@ -9348,20 +9534,16 @@
         <v>20</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>197</v>
+        <v>82</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>266</v>
+        <v>83</v>
       </c>
       <c r="N70" t="s" s="2">
-        <v>267</v>
-      </c>
-      <c r="O70" t="s" s="2">
-        <v>268</v>
-      </c>
-      <c r="P70" t="s" s="2">
-        <v>269</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="O70" s="2"/>
+      <c r="P70" s="2"/>
       <c r="Q70" t="s" s="2">
         <v>20</v>
       </c>
@@ -9385,13 +9567,13 @@
         <v>20</v>
       </c>
       <c r="Y70" t="s" s="2">
-        <v>102</v>
+        <v>20</v>
       </c>
       <c r="Z70" t="s" s="2">
-        <v>270</v>
+        <v>20</v>
       </c>
       <c r="AA70" t="s" s="2">
-        <v>271</v>
+        <v>20</v>
       </c>
       <c r="AB70" t="s" s="2">
         <v>20</v>
@@ -9409,34 +9591,34 @@
         <v>20</v>
       </c>
       <c r="AG70" t="s" s="2">
-        <v>377</v>
+        <v>85</v>
       </c>
       <c r="AH70" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI70" t="s" s="2">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="AJ70" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>104</v>
+        <v>20</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C71" t="s" s="2">
-        <v>378</v>
+        <v>370</v>
       </c>
       <c r="D71" s="2"/>
       <c r="E71" t="s" s="2">
-        <v>20</v>
+        <v>172</v>
       </c>
       <c r="F71" s="2"/>
       <c r="G71" t="s" s="2">
@@ -9455,20 +9637,18 @@
         <v>20</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>379</v>
+        <v>316</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>380</v>
+        <v>317</v>
       </c>
       <c r="O71" t="s" s="2">
-        <v>305</v>
-      </c>
-      <c r="P71" t="s" s="2">
-        <v>306</v>
-      </c>
+        <v>175</v>
+      </c>
+      <c r="P71" s="2"/>
       <c r="Q71" t="s" s="2">
         <v>20</v>
       </c>
@@ -9516,7 +9696,7 @@
         <v>20</v>
       </c>
       <c r="AG71" t="s" s="2">
-        <v>378</v>
+        <v>92</v>
       </c>
       <c r="AH71" t="s" s="2">
         <v>75</v>
@@ -9528,24 +9708,22 @@
         <v>20</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>104</v>
+        <v>79</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C72" t="s" s="2">
-        <v>357</v>
-      </c>
-      <c r="D72" t="s" s="2">
-        <v>396</v>
-      </c>
+        <v>371</v>
+      </c>
+      <c r="D72" s="2"/>
       <c r="E72" t="s" s="2">
-        <v>20</v>
+        <v>319</v>
       </c>
       <c r="F72" s="2"/>
       <c r="G72" t="s" s="2">
@@ -9558,25 +9736,25 @@
         <v>20</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>20</v>
+        <v>125</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>302</v>
+        <v>87</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>397</v>
+        <v>320</v>
       </c>
       <c r="N72" t="s" s="2">
-        <v>359</v>
+        <v>321</v>
       </c>
       <c r="O72" t="s" s="2">
-        <v>360</v>
+        <v>175</v>
       </c>
       <c r="P72" t="s" s="2">
-        <v>361</v>
+        <v>176</v>
       </c>
       <c r="Q72" t="s" s="2">
         <v>20</v>
@@ -9625,7 +9803,7 @@
         <v>20</v>
       </c>
       <c r="AG72" t="s" s="2">
-        <v>357</v>
+        <v>322</v>
       </c>
       <c r="AH72" t="s" s="2">
         <v>75</v>
@@ -9637,18 +9815,18 @@
         <v>20</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>104</v>
+        <v>79</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="C73" t="s" s="2">
-        <v>363</v>
+        <v>372</v>
       </c>
       <c r="D73" s="2"/>
       <c r="E73" t="s" s="2">
@@ -9656,7 +9834,7 @@
       </c>
       <c r="F73" s="2"/>
       <c r="G73" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="H73" t="s" s="2">
         <v>81</v>
@@ -9668,19 +9846,23 @@
         <v>20</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>20</v>
+        <v>125</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>82</v>
+        <v>204</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>83</v>
+        <v>396</v>
       </c>
       <c r="N73" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="O73" s="2"/>
-      <c r="P73" s="2"/>
+        <v>374</v>
+      </c>
+      <c r="O73" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="P73" t="s" s="2">
+        <v>217</v>
+      </c>
       <c r="Q73" t="s" s="2">
         <v>20</v>
       </c>
@@ -9704,13 +9886,11 @@
         <v>20</v>
       </c>
       <c r="Y73" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Z73" t="s" s="2">
-        <v>20</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="Z73" s="2"/>
       <c r="AA73" t="s" s="2">
-        <v>20</v>
+        <v>397</v>
       </c>
       <c r="AB73" t="s" s="2">
         <v>20</v>
@@ -9728,10 +9908,10 @@
         <v>20</v>
       </c>
       <c r="AG73" t="s" s="2">
-        <v>85</v>
+        <v>372</v>
       </c>
       <c r="AH73" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="AI73" t="s" s="2">
         <v>81</v>
@@ -9740,29 +9920,29 @@
         <v>20</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>20</v>
+        <v>102</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C74" t="s" s="2">
-        <v>364</v>
+        <v>378</v>
       </c>
       <c r="D74" s="2"/>
       <c r="E74" t="s" s="2">
-        <v>165</v>
+        <v>20</v>
       </c>
       <c r="F74" s="2"/>
       <c r="G74" t="s" s="2">
         <v>75</v>
       </c>
       <c r="H74" t="s" s="2">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="I74" t="s" s="2">
         <v>20</v>
@@ -9771,21 +9951,23 @@
         <v>20</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>20</v>
+        <v>125</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>87</v>
+        <v>399</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>310</v>
+        <v>379</v>
       </c>
       <c r="N74" t="s" s="2">
-        <v>311</v>
+        <v>257</v>
       </c>
       <c r="O74" t="s" s="2">
-        <v>168</v>
-      </c>
-      <c r="P74" s="2"/>
+        <v>380</v>
+      </c>
+      <c r="P74" t="s" s="2">
+        <v>259</v>
+      </c>
       <c r="Q74" t="s" s="2">
         <v>20</v>
       </c>
@@ -9833,65 +10015,65 @@
         <v>20</v>
       </c>
       <c r="AG74" t="s" s="2">
-        <v>92</v>
+        <v>378</v>
       </c>
       <c r="AH74" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI74" t="s" s="2">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="AJ74" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>79</v>
+        <v>102</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="B75" t="s" s="2">
         <v>400</v>
       </c>
       <c r="C75" t="s" s="2">
-        <v>365</v>
+        <v>381</v>
       </c>
       <c r="D75" s="2"/>
       <c r="E75" t="s" s="2">
-        <v>313</v>
+        <v>20</v>
       </c>
       <c r="F75" s="2"/>
       <c r="G75" t="s" s="2">
         <v>75</v>
       </c>
       <c r="H75" t="s" s="2">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="I75" t="s" s="2">
         <v>20</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>121</v>
+        <v>20</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>121</v>
+        <v>20</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>87</v>
+        <v>204</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>314</v>
+        <v>382</v>
       </c>
       <c r="N75" t="s" s="2">
-        <v>315</v>
+        <v>383</v>
       </c>
       <c r="O75" t="s" s="2">
-        <v>168</v>
+        <v>384</v>
       </c>
       <c r="P75" t="s" s="2">
-        <v>169</v>
+        <v>265</v>
       </c>
       <c r="Q75" t="s" s="2">
         <v>20</v>
@@ -9916,13 +10098,13 @@
         <v>20</v>
       </c>
       <c r="Y75" t="s" s="2">
-        <v>20</v>
+        <v>107</v>
       </c>
       <c r="Z75" t="s" s="2">
-        <v>20</v>
+        <v>266</v>
       </c>
       <c r="AA75" t="s" s="2">
-        <v>20</v>
+        <v>267</v>
       </c>
       <c r="AB75" t="s" s="2">
         <v>20</v>
@@ -9940,41 +10122,41 @@
         <v>20</v>
       </c>
       <c r="AG75" t="s" s="2">
-        <v>316</v>
+        <v>381</v>
       </c>
       <c r="AH75" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI75" t="s" s="2">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>20</v>
+        <v>268</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>79</v>
+        <v>102</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="B76" t="s" s="2">
         <v>401</v>
       </c>
       <c r="C76" t="s" s="2">
-        <v>366</v>
+        <v>385</v>
       </c>
       <c r="D76" s="2"/>
       <c r="E76" t="s" s="2">
-        <v>20</v>
+        <v>270</v>
       </c>
       <c r="F76" s="2"/>
       <c r="G76" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="H76" t="s" s="2">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="I76" t="s" s="2">
         <v>20</v>
@@ -9983,22 +10165,22 @@
         <v>20</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>121</v>
+        <v>20</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>402</v>
+        <v>271</v>
       </c>
       <c r="N76" t="s" s="2">
-        <v>368</v>
+        <v>272</v>
       </c>
       <c r="O76" t="s" s="2">
-        <v>369</v>
+        <v>273</v>
       </c>
       <c r="P76" t="s" s="2">
-        <v>210</v>
+        <v>274</v>
       </c>
       <c r="Q76" t="s" s="2">
         <v>20</v>
@@ -10023,52 +10205,54 @@
         <v>20</v>
       </c>
       <c r="Y76" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="Z76" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="AA76" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="AB76" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC76" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD76" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE76" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF76" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AG76" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="AH76" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI76" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ76" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AK76" t="s" s="2">
         <v>102</v>
-      </c>
-      <c r="Z76" s="2"/>
-      <c r="AA76" t="s" s="2">
-        <v>403</v>
-      </c>
-      <c r="AB76" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AC76" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AD76" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE76" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AF76" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AG76" t="s" s="2">
-        <v>366</v>
-      </c>
-      <c r="AH76" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI76" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AJ76" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AK76" t="s" s="2">
-        <v>104</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="C77" t="s" s="2">
-        <v>370</v>
+        <v>386</v>
       </c>
       <c r="D77" s="2"/>
       <c r="E77" t="s" s="2">
@@ -10079,7 +10263,7 @@
         <v>75</v>
       </c>
       <c r="H77" t="s" s="2">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="I77" t="s" s="2">
         <v>20</v>
@@ -10088,22 +10272,22 @@
         <v>20</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>121</v>
+        <v>20</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>405</v>
+        <v>77</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>371</v>
+        <v>387</v>
       </c>
       <c r="N77" t="s" s="2">
-        <v>252</v>
+        <v>388</v>
       </c>
       <c r="O77" t="s" s="2">
-        <v>372</v>
+        <v>311</v>
       </c>
       <c r="P77" t="s" s="2">
-        <v>254</v>
+        <v>312</v>
       </c>
       <c r="Q77" t="s" s="2">
         <v>20</v>
@@ -10152,32 +10336,34 @@
         <v>20</v>
       </c>
       <c r="AG77" t="s" s="2">
-        <v>370</v>
+        <v>386</v>
       </c>
       <c r="AH77" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI77" t="s" s="2">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="AJ77" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="C78" t="s" s="2">
-        <v>373</v>
-      </c>
-      <c r="D78" s="2"/>
+        <v>363</v>
+      </c>
+      <c r="D78" t="s" s="2">
+        <v>404</v>
+      </c>
       <c r="E78" t="s" s="2">
         <v>20</v>
       </c>
@@ -10186,7 +10372,7 @@
         <v>75</v>
       </c>
       <c r="H78" t="s" s="2">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="I78" t="s" s="2">
         <v>20</v>
@@ -10195,22 +10381,22 @@
         <v>20</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>20</v>
+        <v>125</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>197</v>
+        <v>308</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>374</v>
+        <v>405</v>
       </c>
       <c r="N78" t="s" s="2">
-        <v>375</v>
+        <v>365</v>
       </c>
       <c r="O78" t="s" s="2">
-        <v>376</v>
+        <v>366</v>
       </c>
       <c r="P78" t="s" s="2">
-        <v>260</v>
+        <v>367</v>
       </c>
       <c r="Q78" t="s" s="2">
         <v>20</v>
@@ -10235,65 +10421,65 @@
         <v>20</v>
       </c>
       <c r="Y78" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Z78" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AA78" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB78" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC78" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD78" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE78" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF78" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AG78" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="AH78" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI78" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ78" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AK78" t="s" s="2">
         <v>102</v>
-      </c>
-      <c r="Z78" t="s" s="2">
-        <v>261</v>
-      </c>
-      <c r="AA78" t="s" s="2">
-        <v>262</v>
-      </c>
-      <c r="AB78" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AC78" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AD78" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE78" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AF78" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AG78" t="s" s="2">
-        <v>373</v>
-      </c>
-      <c r="AH78" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AI78" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AJ78" t="s" s="2">
-        <v>263</v>
-      </c>
-      <c r="AK78" t="s" s="2">
-        <v>104</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C79" t="s" s="2">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="D79" s="2"/>
       <c r="E79" t="s" s="2">
-        <v>265</v>
+        <v>20</v>
       </c>
       <c r="F79" s="2"/>
       <c r="G79" t="s" s="2">
         <v>75</v>
       </c>
       <c r="H79" t="s" s="2">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="I79" t="s" s="2">
         <v>20</v>
@@ -10305,20 +10491,16 @@
         <v>20</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>197</v>
+        <v>82</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>266</v>
+        <v>83</v>
       </c>
       <c r="N79" t="s" s="2">
-        <v>267</v>
-      </c>
-      <c r="O79" t="s" s="2">
-        <v>268</v>
-      </c>
-      <c r="P79" t="s" s="2">
-        <v>269</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="O79" s="2"/>
+      <c r="P79" s="2"/>
       <c r="Q79" t="s" s="2">
         <v>20</v>
       </c>
@@ -10342,13 +10524,13 @@
         <v>20</v>
       </c>
       <c r="Y79" t="s" s="2">
-        <v>102</v>
+        <v>20</v>
       </c>
       <c r="Z79" t="s" s="2">
-        <v>270</v>
+        <v>20</v>
       </c>
       <c r="AA79" t="s" s="2">
-        <v>271</v>
+        <v>20</v>
       </c>
       <c r="AB79" t="s" s="2">
         <v>20</v>
@@ -10366,34 +10548,34 @@
         <v>20</v>
       </c>
       <c r="AG79" t="s" s="2">
-        <v>377</v>
+        <v>85</v>
       </c>
       <c r="AH79" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI79" t="s" s="2">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="AJ79" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AK79" t="s" s="2">
-        <v>104</v>
+        <v>20</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C80" t="s" s="2">
-        <v>378</v>
+        <v>370</v>
       </c>
       <c r="D80" s="2"/>
       <c r="E80" t="s" s="2">
-        <v>20</v>
+        <v>172</v>
       </c>
       <c r="F80" s="2"/>
       <c r="G80" t="s" s="2">
@@ -10412,20 +10594,18 @@
         <v>20</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>379</v>
+        <v>316</v>
       </c>
       <c r="N80" t="s" s="2">
-        <v>380</v>
+        <v>317</v>
       </c>
       <c r="O80" t="s" s="2">
-        <v>305</v>
-      </c>
-      <c r="P80" t="s" s="2">
-        <v>306</v>
-      </c>
+        <v>175</v>
+      </c>
+      <c r="P80" s="2"/>
       <c r="Q80" t="s" s="2">
         <v>20</v>
       </c>
@@ -10473,7 +10653,7 @@
         <v>20</v>
       </c>
       <c r="AG80" t="s" s="2">
-        <v>378</v>
+        <v>92</v>
       </c>
       <c r="AH80" t="s" s="2">
         <v>75</v>
@@ -10485,24 +10665,22 @@
         <v>20</v>
       </c>
       <c r="AK80" t="s" s="2">
-        <v>104</v>
+        <v>79</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C81" t="s" s="2">
-        <v>357</v>
-      </c>
-      <c r="D81" t="s" s="2">
-        <v>410</v>
-      </c>
+        <v>371</v>
+      </c>
+      <c r="D81" s="2"/>
       <c r="E81" t="s" s="2">
-        <v>20</v>
+        <v>319</v>
       </c>
       <c r="F81" s="2"/>
       <c r="G81" t="s" s="2">
@@ -10515,25 +10693,25 @@
         <v>20</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>20</v>
+        <v>125</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>302</v>
+        <v>87</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>411</v>
+        <v>320</v>
       </c>
       <c r="N81" t="s" s="2">
-        <v>359</v>
+        <v>321</v>
       </c>
       <c r="O81" t="s" s="2">
-        <v>360</v>
+        <v>175</v>
       </c>
       <c r="P81" t="s" s="2">
-        <v>361</v>
+        <v>176</v>
       </c>
       <c r="Q81" t="s" s="2">
         <v>20</v>
@@ -10582,7 +10760,7 @@
         <v>20</v>
       </c>
       <c r="AG81" t="s" s="2">
-        <v>357</v>
+        <v>322</v>
       </c>
       <c r="AH81" t="s" s="2">
         <v>75</v>
@@ -10594,18 +10772,18 @@
         <v>20</v>
       </c>
       <c r="AK81" t="s" s="2">
-        <v>104</v>
+        <v>79</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="C82" t="s" s="2">
-        <v>363</v>
+        <v>372</v>
       </c>
       <c r="D82" s="2"/>
       <c r="E82" t="s" s="2">
@@ -10613,7 +10791,7 @@
       </c>
       <c r="F82" s="2"/>
       <c r="G82" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="H82" t="s" s="2">
         <v>81</v>
@@ -10625,19 +10803,23 @@
         <v>20</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>20</v>
+        <v>125</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>82</v>
+        <v>204</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>83</v>
+        <v>410</v>
       </c>
       <c r="N82" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="O82" s="2"/>
-      <c r="P82" s="2"/>
+        <v>374</v>
+      </c>
+      <c r="O82" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="P82" t="s" s="2">
+        <v>217</v>
+      </c>
       <c r="Q82" t="s" s="2">
         <v>20</v>
       </c>
@@ -10661,13 +10843,11 @@
         <v>20</v>
       </c>
       <c r="Y82" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Z82" t="s" s="2">
-        <v>20</v>
-      </c>
+        <v>145</v>
+      </c>
+      <c r="Z82" s="2"/>
       <c r="AA82" t="s" s="2">
-        <v>20</v>
+        <v>411</v>
       </c>
       <c r="AB82" t="s" s="2">
         <v>20</v>
@@ -10685,10 +10865,10 @@
         <v>20</v>
       </c>
       <c r="AG82" t="s" s="2">
-        <v>85</v>
+        <v>372</v>
       </c>
       <c r="AH82" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="AI82" t="s" s="2">
         <v>81</v>
@@ -10697,18 +10877,18 @@
         <v>20</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>20</v>
+        <v>102</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C83" t="s" s="2">
-        <v>364</v>
+        <v>378</v>
       </c>
       <c r="D83" s="2"/>
       <c r="E83" t="s" s="2">
@@ -10716,11 +10896,11 @@
       </c>
       <c r="F83" s="2"/>
       <c r="G83" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H83" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="H83" t="s" s="2">
-        <v>76</v>
-      </c>
       <c r="I83" t="s" s="2">
         <v>20</v>
       </c>
@@ -10728,19 +10908,23 @@
         <v>20</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>20</v>
+        <v>125</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>87</v>
+        <v>413</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>30</v>
+        <v>379</v>
       </c>
       <c r="N83" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="O83" s="2"/>
-      <c r="P83" s="2"/>
+        <v>257</v>
+      </c>
+      <c r="O83" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="P83" t="s" s="2">
+        <v>259</v>
+      </c>
       <c r="Q83" t="s" s="2">
         <v>20</v>
       </c>
@@ -10764,62 +10948,60 @@
         <v>20</v>
       </c>
       <c r="Y83" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Z83" t="s" s="2">
-        <v>20</v>
-      </c>
+        <v>145</v>
+      </c>
+      <c r="Z83" s="2"/>
       <c r="AA83" t="s" s="2">
-        <v>20</v>
+        <v>414</v>
       </c>
       <c r="AB83" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AC83" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AD83" s="2"/>
+        <v>20</v>
+      </c>
+      <c r="AD83" t="s" s="2">
+        <v>20</v>
+      </c>
       <c r="AE83" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>91</v>
+        <v>20</v>
       </c>
       <c r="AG83" t="s" s="2">
-        <v>92</v>
+        <v>378</v>
       </c>
       <c r="AH83" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI83" t="s" s="2">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="AJ83" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AK83" t="s" s="2">
-        <v>79</v>
+        <v>102</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="C84" t="s" s="2">
-        <v>364</v>
-      </c>
-      <c r="D84" t="s" s="2">
-        <v>415</v>
-      </c>
+        <v>381</v>
+      </c>
+      <c r="D84" s="2"/>
       <c r="E84" t="s" s="2">
         <v>20</v>
       </c>
       <c r="F84" s="2"/>
       <c r="G84" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="H84" t="s" s="2">
         <v>81</v>
@@ -10834,16 +11016,20 @@
         <v>20</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>416</v>
+        <v>204</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>30</v>
+        <v>382</v>
       </c>
       <c r="N84" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="O84" s="2"/>
-      <c r="P84" s="2"/>
+        <v>383</v>
+      </c>
+      <c r="O84" t="s" s="2">
+        <v>384</v>
+      </c>
+      <c r="P84" t="s" s="2">
+        <v>265</v>
+      </c>
       <c r="Q84" t="s" s="2">
         <v>20</v>
       </c>
@@ -10867,13 +11053,13 @@
         <v>20</v>
       </c>
       <c r="Y84" t="s" s="2">
-        <v>20</v>
+        <v>107</v>
       </c>
       <c r="Z84" t="s" s="2">
-        <v>20</v>
+        <v>266</v>
       </c>
       <c r="AA84" t="s" s="2">
-        <v>20</v>
+        <v>267</v>
       </c>
       <c r="AB84" t="s" s="2">
         <v>20</v>
@@ -10891,34 +11077,34 @@
         <v>20</v>
       </c>
       <c r="AG84" t="s" s="2">
-        <v>92</v>
+        <v>381</v>
       </c>
       <c r="AH84" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI84" t="s" s="2">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="AJ84" t="s" s="2">
-        <v>78</v>
+        <v>268</v>
       </c>
       <c r="AK84" t="s" s="2">
-        <v>79</v>
+        <v>102</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C85" t="s" s="2">
-        <v>365</v>
+        <v>385</v>
       </c>
       <c r="D85" s="2"/>
       <c r="E85" t="s" s="2">
-        <v>313</v>
+        <v>270</v>
       </c>
       <c r="F85" s="2"/>
       <c r="G85" t="s" s="2">
@@ -10931,25 +11117,25 @@
         <v>20</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>121</v>
+        <v>20</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>121</v>
+        <v>20</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>87</v>
+        <v>204</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>314</v>
+        <v>271</v>
       </c>
       <c r="N85" t="s" s="2">
-        <v>315</v>
+        <v>272</v>
       </c>
       <c r="O85" t="s" s="2">
-        <v>168</v>
+        <v>273</v>
       </c>
       <c r="P85" t="s" s="2">
-        <v>169</v>
+        <v>274</v>
       </c>
       <c r="Q85" t="s" s="2">
         <v>20</v>
@@ -10974,13 +11160,13 @@
         <v>20</v>
       </c>
       <c r="Y85" t="s" s="2">
-        <v>20</v>
+        <v>107</v>
       </c>
       <c r="Z85" t="s" s="2">
-        <v>20</v>
+        <v>275</v>
       </c>
       <c r="AA85" t="s" s="2">
-        <v>20</v>
+        <v>276</v>
       </c>
       <c r="AB85" t="s" s="2">
         <v>20</v>
@@ -10998,7 +11184,7 @@
         <v>20</v>
       </c>
       <c r="AG85" t="s" s="2">
-        <v>316</v>
+        <v>385</v>
       </c>
       <c r="AH85" t="s" s="2">
         <v>75</v>
@@ -11010,18 +11196,18 @@
         <v>20</v>
       </c>
       <c r="AK85" t="s" s="2">
-        <v>79</v>
+        <v>102</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C86" t="s" s="2">
-        <v>366</v>
+        <v>386</v>
       </c>
       <c r="D86" s="2"/>
       <c r="E86" t="s" s="2">
@@ -11029,10 +11215,10 @@
       </c>
       <c r="F86" s="2"/>
       <c r="G86" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="H86" t="s" s="2">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="I86" t="s" s="2">
         <v>20</v>
@@ -11041,22 +11227,22 @@
         <v>20</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>121</v>
+        <v>20</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>197</v>
+        <v>77</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>419</v>
+        <v>387</v>
       </c>
       <c r="N86" t="s" s="2">
-        <v>368</v>
+        <v>388</v>
       </c>
       <c r="O86" t="s" s="2">
-        <v>369</v>
+        <v>311</v>
       </c>
       <c r="P86" t="s" s="2">
-        <v>210</v>
+        <v>312</v>
       </c>
       <c r="Q86" t="s" s="2">
         <v>20</v>
@@ -11081,54 +11267,58 @@
         <v>20</v>
       </c>
       <c r="Y86" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Z86" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AA86" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB86" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC86" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD86" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE86" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF86" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AG86" t="s" s="2">
+        <v>386</v>
+      </c>
+      <c r="AH86" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI86" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ86" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AK86" t="s" s="2">
         <v>102</v>
-      </c>
-      <c r="Z86" s="2"/>
-      <c r="AA86" t="s" s="2">
-        <v>420</v>
-      </c>
-      <c r="AB86" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AC86" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AD86" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE86" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AF86" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AG86" t="s" s="2">
-        <v>366</v>
-      </c>
-      <c r="AH86" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI86" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AJ86" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AK86" t="s" s="2">
-        <v>104</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="C87" t="s" s="2">
-        <v>370</v>
-      </c>
-      <c r="D87" s="2"/>
+        <v>363</v>
+      </c>
+      <c r="D87" t="s" s="2">
+        <v>419</v>
+      </c>
       <c r="E87" t="s" s="2">
         <v>20</v>
       </c>
@@ -11137,7 +11327,7 @@
         <v>75</v>
       </c>
       <c r="H87" t="s" s="2">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="I87" t="s" s="2">
         <v>20</v>
@@ -11146,22 +11336,22 @@
         <v>20</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>422</v>
+        <v>308</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>371</v>
+        <v>420</v>
       </c>
       <c r="N87" t="s" s="2">
-        <v>252</v>
+        <v>365</v>
       </c>
       <c r="O87" t="s" s="2">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="P87" t="s" s="2">
-        <v>254</v>
+        <v>367</v>
       </c>
       <c r="Q87" t="s" s="2">
         <v>20</v>
@@ -11210,30 +11400,30 @@
         <v>20</v>
       </c>
       <c r="AG87" t="s" s="2">
-        <v>370</v>
+        <v>363</v>
       </c>
       <c r="AH87" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI87" t="s" s="2">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="AJ87" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AK87" t="s" s="2">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="C88" t="s" s="2">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="D88" s="2"/>
       <c r="E88" t="s" s="2">
@@ -11256,20 +11446,16 @@
         <v>20</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>197</v>
+        <v>82</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>374</v>
+        <v>83</v>
       </c>
       <c r="N88" t="s" s="2">
-        <v>375</v>
-      </c>
-      <c r="O88" t="s" s="2">
-        <v>376</v>
-      </c>
-      <c r="P88" t="s" s="2">
-        <v>260</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="O88" s="2"/>
+      <c r="P88" s="2"/>
       <c r="Q88" t="s" s="2">
         <v>20</v>
       </c>
@@ -11293,13 +11479,13 @@
         <v>20</v>
       </c>
       <c r="Y88" t="s" s="2">
-        <v>102</v>
+        <v>20</v>
       </c>
       <c r="Z88" t="s" s="2">
-        <v>261</v>
+        <v>20</v>
       </c>
       <c r="AA88" t="s" s="2">
-        <v>262</v>
+        <v>20</v>
       </c>
       <c r="AB88" t="s" s="2">
         <v>20</v>
@@ -11317,7 +11503,7 @@
         <v>20</v>
       </c>
       <c r="AG88" t="s" s="2">
-        <v>373</v>
+        <v>85</v>
       </c>
       <c r="AH88" t="s" s="2">
         <v>75</v>
@@ -11326,29 +11512,29 @@
         <v>81</v>
       </c>
       <c r="AJ88" t="s" s="2">
-        <v>263</v>
+        <v>20</v>
       </c>
       <c r="AK88" t="s" s="2">
-        <v>104</v>
+        <v>20</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="C89" t="s" s="2">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="D89" s="2"/>
       <c r="E89" t="s" s="2">
-        <v>265</v>
+        <v>20</v>
       </c>
       <c r="F89" s="2"/>
       <c r="G89" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="H89" t="s" s="2">
         <v>76</v>
@@ -11363,20 +11549,16 @@
         <v>20</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>197</v>
+        <v>87</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>266</v>
+        <v>30</v>
       </c>
       <c r="N89" t="s" s="2">
-        <v>267</v>
-      </c>
-      <c r="O89" t="s" s="2">
-        <v>268</v>
-      </c>
-      <c r="P89" t="s" s="2">
-        <v>269</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="O89" s="2"/>
+      <c r="P89" s="2"/>
       <c r="Q89" t="s" s="2">
         <v>20</v>
       </c>
@@ -11400,31 +11582,29 @@
         <v>20</v>
       </c>
       <c r="Y89" t="s" s="2">
-        <v>102</v>
+        <v>20</v>
       </c>
       <c r="Z89" t="s" s="2">
-        <v>270</v>
+        <v>20</v>
       </c>
       <c r="AA89" t="s" s="2">
-        <v>271</v>
+        <v>20</v>
       </c>
       <c r="AB89" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AC89" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AD89" t="s" s="2">
-        <v>20</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="AD89" s="2"/>
       <c r="AE89" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>20</v>
+        <v>91</v>
       </c>
       <c r="AG89" t="s" s="2">
-        <v>377</v>
+        <v>92</v>
       </c>
       <c r="AH89" t="s" s="2">
         <v>75</v>
@@ -11436,29 +11616,31 @@
         <v>20</v>
       </c>
       <c r="AK89" t="s" s="2">
-        <v>104</v>
+        <v>79</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="C90" t="s" s="2">
-        <v>378</v>
-      </c>
-      <c r="D90" s="2"/>
+        <v>370</v>
+      </c>
+      <c r="D90" t="s" s="2">
+        <v>424</v>
+      </c>
       <c r="E90" t="s" s="2">
         <v>20</v>
       </c>
       <c r="F90" s="2"/>
       <c r="G90" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="H90" t="s" s="2">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="I90" t="s" s="2">
         <v>20</v>
@@ -11470,20 +11652,16 @@
         <v>20</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>77</v>
+        <v>425</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>379</v>
+        <v>30</v>
       </c>
       <c r="N90" t="s" s="2">
-        <v>380</v>
-      </c>
-      <c r="O90" t="s" s="2">
-        <v>305</v>
-      </c>
-      <c r="P90" t="s" s="2">
-        <v>306</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="O90" s="2"/>
+      <c r="P90" s="2"/>
       <c r="Q90" t="s" s="2">
         <v>20</v>
       </c>
@@ -11531,7 +11709,7 @@
         <v>20</v>
       </c>
       <c r="AG90" t="s" s="2">
-        <v>378</v>
+        <v>92</v>
       </c>
       <c r="AH90" t="s" s="2">
         <v>75</v>
@@ -11540,10 +11718,648 @@
         <v>76</v>
       </c>
       <c r="AJ90" t="s" s="2">
-        <v>20</v>
+        <v>78</v>
       </c>
       <c r="AK90" t="s" s="2">
-        <v>104</v>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="B91" t="s" s="2">
+        <v>426</v>
+      </c>
+      <c r="C91" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="D91" s="2"/>
+      <c r="E91" t="s" s="2">
+        <v>319</v>
+      </c>
+      <c r="F91" s="2"/>
+      <c r="G91" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H91" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I91" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J91" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="K91" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="L91" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="M91" t="s" s="2">
+        <v>320</v>
+      </c>
+      <c r="N91" t="s" s="2">
+        <v>321</v>
+      </c>
+      <c r="O91" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="P91" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="Q91" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="R91" s="2"/>
+      <c r="S91" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="T91" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="U91" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="V91" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="W91" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="X91" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Y91" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Z91" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AA91" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB91" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC91" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD91" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE91" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF91" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AG91" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="AH91" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI91" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ91" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AK91" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="B92" t="s" s="2">
+        <v>427</v>
+      </c>
+      <c r="C92" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="D92" s="2"/>
+      <c r="E92" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="F92" s="2"/>
+      <c r="G92" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H92" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I92" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J92" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="K92" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="L92" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="M92" t="s" s="2">
+        <v>428</v>
+      </c>
+      <c r="N92" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="O92" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="P92" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="Q92" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="R92" s="2"/>
+      <c r="S92" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="T92" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="U92" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="V92" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="W92" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="X92" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Y92" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="Z92" s="2"/>
+      <c r="AA92" t="s" s="2">
+        <v>429</v>
+      </c>
+      <c r="AB92" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC92" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD92" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE92" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF92" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AG92" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="AH92" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI92" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ92" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AK92" t="s" s="2">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="B93" t="s" s="2">
+        <v>430</v>
+      </c>
+      <c r="C93" t="s" s="2">
+        <v>378</v>
+      </c>
+      <c r="D93" s="2"/>
+      <c r="E93" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="F93" s="2"/>
+      <c r="G93" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H93" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I93" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J93" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="K93" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="L93" t="s" s="2">
+        <v>431</v>
+      </c>
+      <c r="M93" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="N93" t="s" s="2">
+        <v>257</v>
+      </c>
+      <c r="O93" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="P93" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="Q93" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="R93" s="2"/>
+      <c r="S93" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="T93" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="U93" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="V93" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="W93" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="X93" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Y93" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="Z93" s="2"/>
+      <c r="AA93" t="s" s="2">
+        <v>432</v>
+      </c>
+      <c r="AB93" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC93" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD93" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE93" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF93" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AG93" t="s" s="2">
+        <v>378</v>
+      </c>
+      <c r="AH93" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI93" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ93" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AK93" t="s" s="2">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="B94" t="s" s="2">
+        <v>433</v>
+      </c>
+      <c r="C94" t="s" s="2">
+        <v>381</v>
+      </c>
+      <c r="D94" s="2"/>
+      <c r="E94" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="F94" s="2"/>
+      <c r="G94" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H94" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I94" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J94" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="K94" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="L94" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="M94" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="N94" t="s" s="2">
+        <v>383</v>
+      </c>
+      <c r="O94" t="s" s="2">
+        <v>384</v>
+      </c>
+      <c r="P94" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="Q94" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="R94" s="2"/>
+      <c r="S94" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="T94" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="U94" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="V94" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="W94" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="X94" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Y94" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="Z94" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="AA94" t="s" s="2">
+        <v>267</v>
+      </c>
+      <c r="AB94" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC94" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD94" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE94" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF94" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AG94" t="s" s="2">
+        <v>381</v>
+      </c>
+      <c r="AH94" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI94" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AJ94" t="s" s="2">
+        <v>268</v>
+      </c>
+      <c r="AK94" t="s" s="2">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="B95" t="s" s="2">
+        <v>434</v>
+      </c>
+      <c r="C95" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="D95" s="2"/>
+      <c r="E95" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="F95" s="2"/>
+      <c r="G95" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H95" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I95" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J95" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="K95" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="L95" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="M95" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="N95" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="O95" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="P95" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="Q95" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="R95" s="2"/>
+      <c r="S95" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="T95" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="U95" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="V95" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="W95" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="X95" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Y95" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="Z95" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="AA95" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="AB95" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC95" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD95" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE95" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF95" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AG95" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="AH95" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI95" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ95" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AK95" t="s" s="2">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="B96" t="s" s="2">
+        <v>435</v>
+      </c>
+      <c r="C96" t="s" s="2">
+        <v>386</v>
+      </c>
+      <c r="D96" s="2"/>
+      <c r="E96" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="F96" s="2"/>
+      <c r="G96" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H96" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I96" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J96" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="K96" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="L96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="M96" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="N96" t="s" s="2">
+        <v>388</v>
+      </c>
+      <c r="O96" t="s" s="2">
+        <v>311</v>
+      </c>
+      <c r="P96" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="Q96" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="R96" s="2"/>
+      <c r="S96" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="T96" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="U96" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="V96" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="W96" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="X96" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Y96" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Z96" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AA96" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB96" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC96" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD96" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE96" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF96" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AG96" t="s" s="2">
+        <v>386</v>
+      </c>
+      <c r="AH96" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AI96" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ96" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AK96" t="s" s="2">
+        <v>102</v>
       </c>
     </row>
   </sheetData>
